--- a/data_in/data_raw_manually_extracted/human_entered/S_150.xlsx
+++ b/data_in/data_raw_manually_extracted/human_entered/S_150.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23525"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pixie/Desktop/Data meeting/Data collection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unicef.sharepoint.com/teams/CHE-MarketData-DataIngest/Shared Documents/Data Ingest/CRB Atlas/data_raw_manually_extracted/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{7DD7BC64-DC4D-D24F-8056-E844769C8CF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F43B91E0-05E1-4AFE-9CEA-E7434C300495}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{7DD7BC64-DC4D-D24F-8056-E844769C8CF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{21D6BE23-46FA-44D8-AAC1-A40589911750}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19780" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blueprint" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,10 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blueprint!$A$1:$AJ$1</definedName>
     <definedName name="Options_2.3Sb">[1]CRCE!$DQ$212:$DQ$219</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2900" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2900" uniqueCount="582">
   <si>
     <t>COUNTRY_ISO_3</t>
   </si>
@@ -1786,6 +1787,9 @@
   </si>
   <si>
     <t>Notes: This map highlights countries with provisions in laws and constitutions for the right to information; it does not aim to indicate the strength, effectiveness, or application of the aforementioned provisions. On India: The Preamble to India’s 1950 Constitution was interpreted as providing for the right to information in a Supreme Court case. India is included as having the constitutional right to access to information in the 2017 map because this case was decided in 2005.</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -2339,37 +2343,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ196"/>
   <sheetViews>
-    <sheetView topLeftCell="F73" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="S78" sqref="S78"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.85546875" customWidth="1"/>
-    <col min="24" max="24" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.140625" customWidth="1"/>
-    <col min="27" max="27" width="8.85546875" customWidth="1"/>
+    <col min="13" max="13" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.88671875" customWidth="1"/>
+    <col min="24" max="24" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.109375" customWidth="1"/>
+    <col min="27" max="27" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="1" customFormat="1">
@@ -2477,14 +2481,16 @@
       </c>
       <c r="AJ1" s="5"/>
     </row>
-    <row r="2" spans="1:36" ht="15.95">
+    <row r="2" spans="1:36" ht="15.6">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="12">
+        <v>2019</v>
+      </c>
       <c r="E2" s="16" t="s">
         <v>36</v>
       </c>
@@ -2528,14 +2534,16 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="15.95">
+    <row r="3" spans="1:36" ht="15.6">
       <c r="A3" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="12">
+        <v>2019</v>
+      </c>
       <c r="E3" s="16" t="s">
         <v>36</v>
       </c>
@@ -2547,44 +2555,50 @@
       </c>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:36" ht="15.95">
+    <row r="4" spans="1:36" ht="15.6">
       <c r="A4" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="12">
+        <v>2019</v>
+      </c>
       <c r="E4" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T4" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="15.95">
+    <row r="5" spans="1:36" ht="15.6">
       <c r="A5" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="12">
+        <v>2019</v>
+      </c>
       <c r="E5" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T5" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="15.95">
+    <row r="6" spans="1:36" ht="15.6">
       <c r="A6" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="12">
+        <v>2019</v>
+      </c>
       <c r="E6" s="16" t="s">
         <v>36</v>
       </c>
@@ -2595,14 +2609,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="15.95">
+    <row r="7" spans="1:36" ht="15.6">
       <c r="A7" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="12">
+        <v>2019</v>
+      </c>
       <c r="E7" s="18" t="s">
         <v>50</v>
       </c>
@@ -2613,14 +2629,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="15.95">
+    <row r="8" spans="1:36" ht="15.6">
       <c r="A8" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="12">
+        <v>2019</v>
+      </c>
       <c r="E8" s="16" t="s">
         <v>36</v>
       </c>
@@ -2631,14 +2649,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="15.95">
+    <row r="9" spans="1:36" ht="15.6">
       <c r="A9" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="12">
+        <v>2019</v>
+      </c>
       <c r="E9" s="16" t="s">
         <v>36</v>
       </c>
@@ -2649,14 +2669,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="15.95">
+    <row r="10" spans="1:36" ht="15.6">
       <c r="A10" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="12">
+        <v>2019</v>
+      </c>
       <c r="E10" s="18" t="s">
         <v>50</v>
       </c>
@@ -2667,14 +2689,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="15.95">
+    <row r="11" spans="1:36" ht="15.6">
       <c r="A11" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="12">
+        <v>2019</v>
+      </c>
       <c r="E11" s="16" t="s">
         <v>36</v>
       </c>
@@ -2685,14 +2709,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="15.95">
+    <row r="12" spans="1:36" ht="15.6">
       <c r="A12" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="12">
+        <v>2019</v>
+      </c>
       <c r="E12" s="16" t="s">
         <v>36</v>
       </c>
@@ -2703,44 +2729,50 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="15.95">
+    <row r="13" spans="1:36" ht="15.6">
       <c r="A13" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="12">
+        <v>2019</v>
+      </c>
       <c r="E13" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T13" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="15.95">
+    <row r="14" spans="1:36" ht="15.6">
       <c r="A14" s="10" t="s">
         <v>64</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="12"/>
+      <c r="D14" s="12">
+        <v>2019</v>
+      </c>
       <c r="E14" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T14" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="15.95">
+    <row r="15" spans="1:36" ht="15.6">
       <c r="A15" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="12"/>
+      <c r="D15" s="12">
+        <v>2019</v>
+      </c>
       <c r="E15" s="18" t="s">
         <v>50</v>
       </c>
@@ -2751,29 +2783,33 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="15.95">
+    <row r="16" spans="1:36" ht="15.6">
       <c r="A16" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="D16" s="12">
+        <v>2019</v>
+      </c>
       <c r="E16" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T16" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="68.099999999999994">
+    <row r="17" spans="1:20" ht="78">
       <c r="A17" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="12"/>
+      <c r="D17" s="12">
+        <v>2019</v>
+      </c>
       <c r="E17" s="20" t="s">
         <v>72</v>
       </c>
@@ -2784,14 +2820,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.95">
+    <row r="18" spans="1:20" ht="15.6">
       <c r="A18" s="10" t="s">
         <v>73</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="12"/>
+      <c r="D18" s="12">
+        <v>2019</v>
+      </c>
       <c r="E18" s="16" t="s">
         <v>36</v>
       </c>
@@ -2802,14 +2840,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.95">
+    <row r="19" spans="1:20" ht="15.6">
       <c r="A19" s="10" t="s">
         <v>75</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="12"/>
+      <c r="D19" s="12">
+        <v>2019</v>
+      </c>
       <c r="E19" s="18" t="s">
         <v>50</v>
       </c>
@@ -2820,29 +2860,33 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.95">
+    <row r="20" spans="1:20" ht="15.6">
       <c r="A20" s="10" t="s">
         <v>77</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="12"/>
+      <c r="D20" s="12">
+        <v>2019</v>
+      </c>
       <c r="E20" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T20" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="68.099999999999994">
+    <row r="21" spans="1:20" ht="78">
       <c r="A21" s="10" t="s">
         <v>79</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="12"/>
+      <c r="D21" s="12">
+        <v>2019</v>
+      </c>
       <c r="E21" s="20" t="s">
         <v>72</v>
       </c>
@@ -2853,14 +2897,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="68.099999999999994">
+    <row r="22" spans="1:20" ht="78">
       <c r="A22" s="10" t="s">
         <v>81</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="12"/>
+      <c r="D22" s="12">
+        <v>2019</v>
+      </c>
       <c r="E22" s="20" t="s">
         <v>72</v>
       </c>
@@ -2871,14 +2917,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.95">
+    <row r="23" spans="1:20" ht="15.6">
       <c r="A23" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="12"/>
+      <c r="D23" s="12">
+        <v>2019</v>
+      </c>
       <c r="E23" s="18" t="s">
         <v>50</v>
       </c>
@@ -2889,29 +2937,33 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.95">
+    <row r="24" spans="1:20" ht="15.6">
       <c r="A24" s="10" t="s">
         <v>85</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="12"/>
+      <c r="D24" s="12">
+        <v>2019</v>
+      </c>
       <c r="E24" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T24" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.95">
+    <row r="25" spans="1:20" ht="15.6">
       <c r="A25" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="12"/>
+      <c r="D25" s="12">
+        <v>2019</v>
+      </c>
       <c r="E25" s="16" t="s">
         <v>36</v>
       </c>
@@ -2922,29 +2974,33 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.95">
+    <row r="26" spans="1:20" ht="15.6">
       <c r="A26" s="10" t="s">
         <v>89</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="12"/>
+      <c r="D26" s="12">
+        <v>2019</v>
+      </c>
       <c r="E26" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T26" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="15.95">
+    <row r="27" spans="1:20" ht="15.6">
       <c r="A27" s="10" t="s">
         <v>91</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="12"/>
+      <c r="D27" s="12">
+        <v>2019</v>
+      </c>
       <c r="E27" s="16" t="s">
         <v>36</v>
       </c>
@@ -2955,14 +3011,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="15.95">
+    <row r="28" spans="1:20" ht="15.6">
       <c r="A28" s="10" t="s">
         <v>93</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="12"/>
+      <c r="D28" s="12">
+        <v>2019</v>
+      </c>
       <c r="E28" s="16" t="s">
         <v>36</v>
       </c>
@@ -2973,29 +3031,33 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.95">
+    <row r="29" spans="1:20" ht="15.6">
       <c r="A29" s="10" t="s">
         <v>95</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="12"/>
+      <c r="D29" s="12">
+        <v>2019</v>
+      </c>
       <c r="E29" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T29" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="68.099999999999994">
+    <row r="30" spans="1:20" ht="78">
       <c r="A30" s="10" t="s">
         <v>97</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="12"/>
+      <c r="D30" s="12">
+        <v>2019</v>
+      </c>
       <c r="E30" s="20" t="s">
         <v>72</v>
       </c>
@@ -3006,44 +3068,50 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="15.95">
+    <row r="31" spans="1:20" ht="15.6">
       <c r="A31" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="12"/>
+      <c r="D31" s="12">
+        <v>2019</v>
+      </c>
       <c r="E31" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T31" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="15.95">
+    <row r="32" spans="1:20" ht="15.6">
       <c r="A32" s="10" t="s">
         <v>102</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D32" s="12"/>
+      <c r="D32" s="12">
+        <v>2019</v>
+      </c>
       <c r="E32" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T32" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="15.95">
+    <row r="33" spans="1:20" ht="15.6">
       <c r="A33" s="10" t="s">
         <v>104</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="D33" s="12"/>
+      <c r="D33" s="12">
+        <v>2019</v>
+      </c>
       <c r="E33" s="18" t="s">
         <v>50</v>
       </c>
@@ -3054,14 +3122,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="68.099999999999994">
+    <row r="34" spans="1:20" ht="78">
       <c r="A34" s="10" t="s">
         <v>106</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="D34" s="12"/>
+      <c r="D34" s="12">
+        <v>2019</v>
+      </c>
       <c r="E34" s="20" t="s">
         <v>72</v>
       </c>
@@ -3072,29 +3142,33 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="15.95">
+    <row r="35" spans="1:20" ht="15.6">
       <c r="A35" s="10" t="s">
         <v>108</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D35" s="12"/>
+      <c r="D35" s="12">
+        <v>2019</v>
+      </c>
       <c r="E35" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T35" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="15.95">
+    <row r="36" spans="1:20" ht="15.6">
       <c r="A36" s="10" t="s">
         <v>110</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D36" s="12"/>
+      <c r="D36" s="12">
+        <v>2019</v>
+      </c>
       <c r="E36" s="18" t="s">
         <v>50</v>
       </c>
@@ -3105,14 +3179,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="15.95">
+    <row r="37" spans="1:20" ht="15.6">
       <c r="A37" s="10" t="s">
         <v>112</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="12"/>
+      <c r="D37" s="12">
+        <v>2019</v>
+      </c>
       <c r="E37" s="18" t="s">
         <v>50</v>
       </c>
@@ -3123,14 +3199,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="15.95">
+    <row r="38" spans="1:20" ht="15.6">
       <c r="A38" s="10" t="s">
         <v>114</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D38" s="12"/>
+      <c r="D38" s="12">
+        <v>2019</v>
+      </c>
       <c r="E38" s="16" t="s">
         <v>36</v>
       </c>
@@ -3141,29 +3219,33 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="15.95">
+    <row r="39" spans="1:20" ht="15.6">
       <c r="A39" s="10" t="s">
         <v>116</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D39" s="12"/>
+      <c r="D39" s="12">
+        <v>2019</v>
+      </c>
       <c r="E39" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T39" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="68.099999999999994">
+    <row r="40" spans="1:20" ht="78">
       <c r="A40" s="10" t="s">
         <v>118</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="D40" s="12"/>
+      <c r="D40" s="12">
+        <v>2019</v>
+      </c>
       <c r="E40" s="20" t="s">
         <v>72</v>
       </c>
@@ -3174,14 +3256,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="68.099999999999994">
+    <row r="41" spans="1:20" ht="78">
       <c r="A41" s="10" t="s">
         <v>120</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D41" s="12"/>
+      <c r="D41" s="12">
+        <v>2019</v>
+      </c>
       <c r="E41" s="20" t="s">
         <v>72</v>
       </c>
@@ -3192,14 +3276,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="68.099999999999994">
+    <row r="42" spans="1:20" ht="78">
       <c r="A42" s="10" t="s">
         <v>122</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D42" s="12"/>
+      <c r="D42" s="12">
+        <v>2019</v>
+      </c>
       <c r="E42" s="20" t="s">
         <v>72</v>
       </c>
@@ -3210,14 +3296,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="15.95">
+    <row r="43" spans="1:20" ht="15.6">
       <c r="A43" s="10" t="s">
         <v>124</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D43" s="12"/>
+      <c r="D43" s="12">
+        <v>2019</v>
+      </c>
       <c r="E43" s="18" t="s">
         <v>50</v>
       </c>
@@ -3228,14 +3316,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="15.95">
+    <row r="44" spans="1:20" ht="15.6">
       <c r="A44" s="10" t="s">
         <v>126</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D44" s="12"/>
+      <c r="D44" s="12">
+        <v>2019</v>
+      </c>
       <c r="E44" s="16" t="s">
         <v>36</v>
       </c>
@@ -3246,44 +3336,50 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="15.95">
+    <row r="45" spans="1:20" ht="15.6">
       <c r="A45" s="10" t="s">
         <v>128</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D45" s="12"/>
+      <c r="D45" s="12">
+        <v>2019</v>
+      </c>
       <c r="E45" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T45" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="15.95">
+    <row r="46" spans="1:20" ht="15.6">
       <c r="A46" s="10" t="s">
         <v>130</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D46" s="12"/>
+      <c r="D46" s="12">
+        <v>2019</v>
+      </c>
       <c r="E46" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T46" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="15.95">
+    <row r="47" spans="1:20" ht="15.6">
       <c r="A47" s="10" t="s">
         <v>132</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="D47" s="12"/>
+      <c r="D47" s="12">
+        <v>2019</v>
+      </c>
       <c r="E47" s="18" t="s">
         <v>50</v>
       </c>
@@ -3294,14 +3390,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="15.95">
+    <row r="48" spans="1:20" ht="15.6">
       <c r="A48" s="10" t="s">
         <v>134</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D48" s="12"/>
+      <c r="D48" s="12">
+        <v>2019</v>
+      </c>
       <c r="E48" s="18" t="s">
         <v>50</v>
       </c>
@@ -3312,44 +3410,50 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="15.95">
+    <row r="49" spans="1:20" ht="15.6">
       <c r="A49" s="10" t="s">
         <v>136</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D49" s="12"/>
+      <c r="D49" s="12">
+        <v>2019</v>
+      </c>
       <c r="E49" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T49" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="15.95">
+    <row r="50" spans="1:20" ht="15.6">
       <c r="A50" s="10" t="s">
         <v>138</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D50" s="12"/>
+      <c r="D50" s="12">
+        <v>2019</v>
+      </c>
       <c r="E50" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T50" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="15.95">
+    <row r="51" spans="1:20" ht="15.6">
       <c r="A51" s="10" t="s">
         <v>140</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D51" s="12"/>
+      <c r="D51" s="12">
+        <v>2019</v>
+      </c>
       <c r="E51" s="16" t="s">
         <v>36</v>
       </c>
@@ -3360,14 +3464,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="15.95">
+    <row r="52" spans="1:20" ht="15.6">
       <c r="A52" s="10" t="s">
         <v>142</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D52" s="12"/>
+      <c r="D52" s="12">
+        <v>2019</v>
+      </c>
       <c r="E52" s="16" t="s">
         <v>36</v>
       </c>
@@ -3378,14 +3484,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="68.099999999999994">
+    <row r="53" spans="1:20" ht="78">
       <c r="A53" s="10" t="s">
         <v>144</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="D53" s="12"/>
+      <c r="D53" s="12">
+        <v>2019</v>
+      </c>
       <c r="E53" s="20" t="s">
         <v>72</v>
       </c>
@@ -3396,14 +3504,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="15.95">
+    <row r="54" spans="1:20" ht="15.6">
       <c r="A54" s="10" t="s">
         <v>146</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="D54" s="12"/>
+      <c r="D54" s="12">
+        <v>2019</v>
+      </c>
       <c r="E54" s="18" t="s">
         <v>50</v>
       </c>
@@ -3414,29 +3524,33 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="15.95">
+    <row r="55" spans="1:20" ht="15.6">
       <c r="A55" s="10" t="s">
         <v>148</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D55" s="12"/>
+      <c r="D55" s="12">
+        <v>2019</v>
+      </c>
       <c r="E55" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T55" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="68.099999999999994">
+    <row r="56" spans="1:20" ht="78">
       <c r="A56" s="10" t="s">
         <v>150</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="D56" s="12"/>
+      <c r="D56" s="12">
+        <v>2019</v>
+      </c>
       <c r="E56" s="20" t="s">
         <v>72</v>
       </c>
@@ -3447,14 +3561,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="15.95">
+    <row r="57" spans="1:20" ht="15.6">
       <c r="A57" s="10" t="s">
         <v>152</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="D57" s="12"/>
+      <c r="D57" s="12">
+        <v>2019</v>
+      </c>
       <c r="E57" s="16" t="s">
         <v>36</v>
       </c>
@@ -3465,29 +3581,33 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="15.95">
+    <row r="58" spans="1:20" ht="15.6">
       <c r="A58" s="10" t="s">
         <v>154</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="D58" s="12"/>
+      <c r="D58" s="12">
+        <v>2019</v>
+      </c>
       <c r="E58" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T58" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="15.95">
+    <row r="59" spans="1:20" ht="15.6">
       <c r="A59" s="10" t="s">
         <v>156</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="D59" s="12"/>
+      <c r="D59" s="12">
+        <v>2019</v>
+      </c>
       <c r="E59" s="16" t="s">
         <v>36</v>
       </c>
@@ -3498,14 +3618,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="68.099999999999994">
+    <row r="60" spans="1:20" ht="78">
       <c r="A60" s="10" t="s">
         <v>158</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="D60" s="12"/>
+      <c r="D60" s="12">
+        <v>2019</v>
+      </c>
       <c r="E60" s="20" t="s">
         <v>72</v>
       </c>
@@ -3516,14 +3638,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="15.95">
+    <row r="61" spans="1:20" ht="15.6">
       <c r="A61" s="10" t="s">
         <v>160</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="D61" s="12"/>
+      <c r="D61" s="12">
+        <v>2019</v>
+      </c>
       <c r="E61" s="18" t="s">
         <v>50</v>
       </c>
@@ -3534,14 +3658,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="15.95">
+    <row r="62" spans="1:20" ht="15.6">
       <c r="A62" s="10" t="s">
         <v>163</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="D62" s="12"/>
+      <c r="D62" s="12">
+        <v>2019</v>
+      </c>
       <c r="E62" s="18" t="s">
         <v>50</v>
       </c>
@@ -3552,44 +3678,50 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="15.95">
+    <row r="63" spans="1:20" ht="15.6">
       <c r="A63" s="10" t="s">
         <v>165</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="D63" s="12"/>
+      <c r="D63" s="12">
+        <v>2019</v>
+      </c>
       <c r="E63" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T63" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="15.95">
+    <row r="64" spans="1:20" ht="15.6">
       <c r="A64" s="10" t="s">
         <v>167</v>
       </c>
       <c r="C64" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="D64" s="12"/>
+      <c r="D64" s="12">
+        <v>2019</v>
+      </c>
       <c r="E64" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T64" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="15.95">
+    <row r="65" spans="1:20" ht="15.6">
       <c r="A65" s="10" t="s">
         <v>169</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="D65" s="12"/>
+      <c r="D65" s="12">
+        <v>2019</v>
+      </c>
       <c r="E65" s="16" t="s">
         <v>36</v>
       </c>
@@ -3600,14 +3732,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="15.95">
+    <row r="66" spans="1:20" ht="15.6">
       <c r="A66" s="10" t="s">
         <v>171</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D66" s="12"/>
+      <c r="D66" s="12">
+        <v>2019</v>
+      </c>
       <c r="E66" s="16" t="s">
         <v>36</v>
       </c>
@@ -3618,14 +3752,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="68.099999999999994">
+    <row r="67" spans="1:20" ht="78">
       <c r="A67" s="10" t="s">
         <v>173</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="D67" s="12"/>
+      <c r="D67" s="12">
+        <v>2019</v>
+      </c>
       <c r="E67" s="20" t="s">
         <v>72</v>
       </c>
@@ -3636,14 +3772,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="15.95">
+    <row r="68" spans="1:20" ht="15.6">
       <c r="A68" s="10" t="s">
         <v>175</v>
       </c>
       <c r="C68" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D68" s="12"/>
+      <c r="D68" s="12">
+        <v>2019</v>
+      </c>
       <c r="E68" s="16" t="s">
         <v>36</v>
       </c>
@@ -3654,29 +3792,33 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="15.95">
+    <row r="69" spans="1:20" ht="15.6">
       <c r="A69" s="10" t="s">
         <v>177</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="D69" s="12"/>
+      <c r="D69" s="12">
+        <v>2019</v>
+      </c>
       <c r="E69" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T69" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="15.95">
+    <row r="70" spans="1:20" ht="15.6">
       <c r="A70" s="10" t="s">
         <v>179</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="D70" s="12"/>
+      <c r="D70" s="12">
+        <v>2019</v>
+      </c>
       <c r="E70" s="16" t="s">
         <v>36</v>
       </c>
@@ -3687,14 +3829,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="15.95">
+    <row r="71" spans="1:20" ht="15.6">
       <c r="A71" s="10" t="s">
         <v>181</v>
       </c>
       <c r="C71" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="D71" s="12"/>
+      <c r="D71" s="12">
+        <v>2019</v>
+      </c>
       <c r="E71" s="16" t="s">
         <v>36</v>
       </c>
@@ -3705,14 +3849,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="68.099999999999994">
+    <row r="72" spans="1:20" ht="78">
       <c r="A72" s="10" t="s">
         <v>183</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D72" s="12"/>
+      <c r="D72" s="12">
+        <v>2019</v>
+      </c>
       <c r="E72" s="20" t="s">
         <v>72</v>
       </c>
@@ -3723,14 +3869,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="15.95">
+    <row r="73" spans="1:20" ht="15.6">
       <c r="A73" s="10" t="s">
         <v>185</v>
       </c>
       <c r="C73" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="D73" s="12"/>
+      <c r="D73" s="12">
+        <v>2019</v>
+      </c>
       <c r="E73" s="18" t="s">
         <v>50</v>
       </c>
@@ -3741,14 +3889,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="68.099999999999994">
+    <row r="74" spans="1:20" ht="78">
       <c r="A74" s="10" t="s">
         <v>187</v>
       </c>
       <c r="C74" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="D74" s="12"/>
+      <c r="D74" s="12">
+        <v>2019</v>
+      </c>
       <c r="E74" s="20" t="s">
         <v>72</v>
       </c>
@@ -3759,14 +3909,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="15.95">
+    <row r="75" spans="1:20" ht="15.6">
       <c r="A75" s="10" t="s">
         <v>189</v>
       </c>
       <c r="C75" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D75" s="12"/>
+      <c r="D75" s="12">
+        <v>2019</v>
+      </c>
       <c r="E75" s="16" t="s">
         <v>36</v>
       </c>
@@ -3777,14 +3929,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="15.95">
+    <row r="76" spans="1:20" ht="15.6">
       <c r="A76" s="10" t="s">
         <v>191</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="D76" s="12"/>
+      <c r="D76" s="12">
+        <v>2019</v>
+      </c>
       <c r="E76" s="16" t="s">
         <v>36</v>
       </c>
@@ -3795,14 +3949,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="15.95">
+    <row r="77" spans="1:20" ht="15.6">
       <c r="A77" s="10" t="s">
         <v>193</v>
       </c>
       <c r="C77" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="D77" s="12"/>
+      <c r="D77" s="12">
+        <v>2019</v>
+      </c>
       <c r="E77" s="18" t="s">
         <v>50</v>
       </c>
@@ -3813,14 +3969,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="15.95">
+    <row r="78" spans="1:20" ht="15.6">
       <c r="A78" s="10" t="s">
         <v>195</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="D78" s="12"/>
+      <c r="D78" s="12">
+        <v>2019</v>
+      </c>
       <c r="E78" s="18" t="s">
         <v>50</v>
       </c>
@@ -3831,14 +3989,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="15.95">
+    <row r="79" spans="1:20" ht="15.6">
       <c r="A79" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C79" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="D79" s="12"/>
+      <c r="D79" s="12">
+        <v>2019</v>
+      </c>
       <c r="E79" s="16" t="s">
         <v>36</v>
       </c>
@@ -3849,14 +4009,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="15.95">
+    <row r="80" spans="1:20" ht="15.6">
       <c r="A80" s="10" t="s">
         <v>200</v>
       </c>
       <c r="C80" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="D80" s="12"/>
+      <c r="D80" s="12">
+        <v>2019</v>
+      </c>
       <c r="E80" s="18" t="s">
         <v>50</v>
       </c>
@@ -3867,29 +4029,33 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="15.95">
+    <row r="81" spans="1:20" ht="15.6">
       <c r="A81" s="10" t="s">
         <v>202</v>
       </c>
       <c r="C81" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="D81" s="12"/>
+      <c r="D81" s="12">
+        <v>2019</v>
+      </c>
       <c r="E81" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T81" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="15.95">
+    <row r="82" spans="1:20" ht="15.6">
       <c r="A82" s="10" t="s">
         <v>204</v>
       </c>
       <c r="C82" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="D82" s="12"/>
+      <c r="D82" s="12">
+        <v>2019</v>
+      </c>
       <c r="E82" s="18" t="s">
         <v>50</v>
       </c>
@@ -3900,29 +4066,33 @@
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="15.95">
+    <row r="83" spans="1:20" ht="15.6">
       <c r="A83" s="10" t="s">
         <v>206</v>
       </c>
       <c r="C83" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="D83" s="12"/>
+      <c r="D83" s="12">
+        <v>2019</v>
+      </c>
       <c r="E83" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T83" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="15.95">
+    <row r="84" spans="1:20" ht="15.6">
       <c r="A84" s="10" t="s">
         <v>208</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="D84" s="12"/>
+      <c r="D84" s="12">
+        <v>2019</v>
+      </c>
       <c r="E84" s="18" t="s">
         <v>50</v>
       </c>
@@ -3933,14 +4103,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="15.95">
+    <row r="85" spans="1:20" ht="15.6">
       <c r="A85" s="10" t="s">
         <v>210</v>
       </c>
       <c r="C85" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="D85" s="12"/>
+      <c r="D85" s="12">
+        <v>2019</v>
+      </c>
       <c r="E85" s="18" t="s">
         <v>50</v>
       </c>
@@ -3951,14 +4123,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="15.95">
+    <row r="86" spans="1:20" ht="15.6">
       <c r="A86" s="10" t="s">
         <v>212</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="D86" s="12"/>
+      <c r="D86" s="12">
+        <v>2019</v>
+      </c>
       <c r="E86" s="16" t="s">
         <v>36</v>
       </c>
@@ -3969,14 +4143,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="15.95">
+    <row r="87" spans="1:20" ht="15.6">
       <c r="A87" s="10" t="s">
         <v>214</v>
       </c>
       <c r="C87" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="D87" s="12"/>
+      <c r="D87" s="12">
+        <v>2019</v>
+      </c>
       <c r="E87" s="18" t="s">
         <v>50</v>
       </c>
@@ -3987,14 +4163,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="15.95">
+    <row r="88" spans="1:20" ht="15.6">
       <c r="A88" s="10" t="s">
         <v>216</v>
       </c>
       <c r="C88" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="D88" s="12"/>
+      <c r="D88" s="12">
+        <v>2019</v>
+      </c>
       <c r="E88" s="16" t="s">
         <v>36</v>
       </c>
@@ -4005,14 +4183,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="15.95">
+    <row r="89" spans="1:20" ht="15.6">
       <c r="A89" s="10" t="s">
         <v>218</v>
       </c>
       <c r="C89" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="D89" s="12"/>
+      <c r="D89" s="12">
+        <v>2019</v>
+      </c>
       <c r="E89" s="16" t="s">
         <v>36</v>
       </c>
@@ -4023,44 +4203,50 @@
         <v>37</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="15.95">
+    <row r="90" spans="1:20" ht="15.6">
       <c r="A90" s="10" t="s">
         <v>220</v>
       </c>
       <c r="C90" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="D90" s="12"/>
+      <c r="D90" s="12">
+        <v>2019</v>
+      </c>
       <c r="E90" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T90" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="15.95">
+    <row r="91" spans="1:20" ht="15.6">
       <c r="A91" s="10" t="s">
         <v>222</v>
       </c>
       <c r="C91" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="D91" s="12"/>
+      <c r="D91" s="12">
+        <v>2019</v>
+      </c>
       <c r="E91" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T91" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="15.95">
+    <row r="92" spans="1:20" ht="15.6">
       <c r="A92" s="10" t="s">
         <v>224</v>
       </c>
       <c r="C92" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="D92" s="12"/>
+      <c r="D92" s="12">
+        <v>2019</v>
+      </c>
       <c r="E92" s="16" t="s">
         <v>36</v>
       </c>
@@ -4071,14 +4257,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="15.95">
+    <row r="93" spans="1:20" ht="15.6">
       <c r="A93" s="10" t="s">
         <v>226</v>
       </c>
       <c r="C93" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="D93" s="12"/>
+      <c r="D93" s="12">
+        <v>2019</v>
+      </c>
       <c r="E93" s="16" t="s">
         <v>36</v>
       </c>
@@ -4086,29 +4274,33 @@
         <v>37</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="15.95">
+    <row r="94" spans="1:20" ht="15.6">
       <c r="A94" s="10" t="s">
         <v>228</v>
       </c>
       <c r="C94" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="D94" s="12"/>
+      <c r="D94" s="12">
+        <v>2019</v>
+      </c>
       <c r="E94" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T94" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="15.95">
+    <row r="95" spans="1:20" ht="15.6">
       <c r="A95" s="10" t="s">
         <v>230</v>
       </c>
       <c r="C95" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="D95" s="12"/>
+      <c r="D95" s="12">
+        <v>2019</v>
+      </c>
       <c r="E95" s="16" t="s">
         <v>36</v>
       </c>
@@ -4119,29 +4311,33 @@
         <v>37</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="15.95">
+    <row r="96" spans="1:20" ht="15.6">
       <c r="A96" s="10" t="s">
         <v>232</v>
       </c>
       <c r="C96" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="D96" s="12"/>
+      <c r="D96" s="12">
+        <v>2019</v>
+      </c>
       <c r="E96" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T96" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="15.95">
+    <row r="97" spans="1:20" ht="15.6">
       <c r="A97" s="10" t="s">
         <v>234</v>
       </c>
       <c r="C97" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="D97" s="12"/>
+      <c r="D97" s="12">
+        <v>2019</v>
+      </c>
       <c r="E97" s="16" t="s">
         <v>36</v>
       </c>
@@ -4152,44 +4348,50 @@
         <v>37</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="15.95">
+    <row r="98" spans="1:20" ht="15.6">
       <c r="A98" s="10" t="s">
         <v>236</v>
       </c>
       <c r="C98" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="D98" s="12"/>
+      <c r="D98" s="12">
+        <v>2019</v>
+      </c>
       <c r="E98" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T98" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="15.95">
+    <row r="99" spans="1:20" ht="15.6">
       <c r="A99" s="10" t="s">
         <v>238</v>
       </c>
       <c r="C99" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="D99" s="12"/>
+      <c r="D99" s="12">
+        <v>2019</v>
+      </c>
       <c r="E99" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T99" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="15.95">
+    <row r="100" spans="1:20" ht="15.6">
       <c r="A100" s="10" t="s">
         <v>240</v>
       </c>
       <c r="C100" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="D100" s="12"/>
+      <c r="D100" s="12">
+        <v>2019</v>
+      </c>
       <c r="E100" s="18" t="s">
         <v>50</v>
       </c>
@@ -4200,29 +4402,33 @@
         <v>37</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="15.95">
+    <row r="101" spans="1:20" ht="15.6">
       <c r="A101" s="10" t="s">
         <v>242</v>
       </c>
       <c r="C101" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="D101" s="12"/>
+      <c r="D101" s="12">
+        <v>2019</v>
+      </c>
       <c r="E101" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T101" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="15.95">
+    <row r="102" spans="1:20" ht="15.6">
       <c r="A102" s="10" t="s">
         <v>244</v>
       </c>
       <c r="C102" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="D102" s="12"/>
+      <c r="D102" s="12">
+        <v>2019</v>
+      </c>
       <c r="E102" s="18" t="s">
         <v>50</v>
       </c>
@@ -4233,14 +4439,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="15.95">
+    <row r="103" spans="1:20" ht="15.6">
       <c r="A103" s="10" t="s">
         <v>246</v>
       </c>
       <c r="C103" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="D103" s="12"/>
+      <c r="D103" s="12">
+        <v>2019</v>
+      </c>
       <c r="E103" s="16" t="s">
         <v>36</v>
       </c>
@@ -4251,29 +4459,33 @@
         <v>37</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="15.95">
+    <row r="104" spans="1:20" ht="15.6">
       <c r="A104" s="10" t="s">
         <v>248</v>
       </c>
       <c r="C104" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="D104" s="12"/>
+      <c r="D104" s="12">
+        <v>2019</v>
+      </c>
       <c r="E104" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T104" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="15.95">
+    <row r="105" spans="1:20" ht="15.6">
       <c r="A105" s="10" t="s">
         <v>250</v>
       </c>
       <c r="C105" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="D105" s="12"/>
+      <c r="D105" s="12">
+        <v>2019</v>
+      </c>
       <c r="E105" s="16" t="s">
         <v>36</v>
       </c>
@@ -4284,14 +4496,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="68.099999999999994">
+    <row r="106" spans="1:20" ht="78">
       <c r="A106" s="10" t="s">
         <v>252</v>
       </c>
       <c r="C106" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="D106" s="12"/>
+      <c r="D106" s="12">
+        <v>2019</v>
+      </c>
       <c r="E106" s="20" t="s">
         <v>72</v>
       </c>
@@ -4302,14 +4516,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="68.099999999999994">
+    <row r="107" spans="1:20" ht="78">
       <c r="A107" s="10" t="s">
         <v>254</v>
       </c>
       <c r="C107" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="D107" s="12"/>
+      <c r="D107" s="12">
+        <v>2019</v>
+      </c>
       <c r="E107" s="20" t="s">
         <v>72</v>
       </c>
@@ -4320,29 +4536,33 @@
         <v>37</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="15.95">
+    <row r="108" spans="1:20" ht="15.6">
       <c r="A108" s="10" t="s">
         <v>256</v>
       </c>
       <c r="C108" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="D108" s="12"/>
+      <c r="D108" s="12">
+        <v>2019</v>
+      </c>
       <c r="E108" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T108" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="68.099999999999994">
+    <row r="109" spans="1:20" ht="78">
       <c r="A109" s="10" t="s">
         <v>258</v>
       </c>
       <c r="C109" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="D109" s="12"/>
+      <c r="D109" s="12">
+        <v>2019</v>
+      </c>
       <c r="E109" s="20" t="s">
         <v>72</v>
       </c>
@@ -4353,29 +4573,33 @@
         <v>37</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="15.95">
+    <row r="110" spans="1:20" ht="15.6">
       <c r="A110" s="10" t="s">
         <v>260</v>
       </c>
       <c r="C110" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="D110" s="12"/>
+      <c r="D110" s="12">
+        <v>2019</v>
+      </c>
       <c r="E110" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T110" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="15.95">
+    <row r="111" spans="1:20" ht="15.6">
       <c r="A111" s="10" t="s">
         <v>262</v>
       </c>
       <c r="C111" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="D111" s="12"/>
+      <c r="D111" s="12">
+        <v>2019</v>
+      </c>
       <c r="E111" s="16" t="s">
         <v>36</v>
       </c>
@@ -4386,59 +4610,67 @@
         <v>37</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="15.95">
+    <row r="112" spans="1:20" ht="15.6">
       <c r="A112" s="10" t="s">
         <v>264</v>
       </c>
       <c r="C112" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="D112" s="12"/>
+      <c r="D112" s="12">
+        <v>2019</v>
+      </c>
       <c r="E112" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T112" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="15.95">
+    <row r="113" spans="1:20" ht="15.6">
       <c r="A113" s="10" t="s">
         <v>266</v>
       </c>
       <c r="C113" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="D113" s="12"/>
+      <c r="D113" s="12">
+        <v>2019</v>
+      </c>
       <c r="E113" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T113" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="15.95">
+    <row r="114" spans="1:20" ht="15.6">
       <c r="A114" s="10" t="s">
         <v>268</v>
       </c>
       <c r="C114" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="D114" s="12"/>
+      <c r="D114" s="12">
+        <v>2019</v>
+      </c>
       <c r="E114" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T114" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="15.95">
+    <row r="115" spans="1:20" ht="15.6">
       <c r="A115" s="10" t="s">
         <v>270</v>
       </c>
       <c r="C115" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="D115" s="12"/>
+      <c r="D115" s="12">
+        <v>2019</v>
+      </c>
       <c r="E115" s="16" t="s">
         <v>36</v>
       </c>
@@ -4449,29 +4681,33 @@
         <v>37</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="15.95">
+    <row r="116" spans="1:20" ht="15.6">
       <c r="A116" s="10" t="s">
         <v>272</v>
       </c>
       <c r="C116" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="D116" s="12"/>
+      <c r="D116" s="12">
+        <v>2019</v>
+      </c>
       <c r="E116" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T116" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="15.95">
+    <row r="117" spans="1:20" ht="15.6">
       <c r="A117" s="10" t="s">
         <v>274</v>
       </c>
       <c r="C117" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="D117" s="12"/>
+      <c r="D117" s="12">
+        <v>2019</v>
+      </c>
       <c r="E117" s="16" t="s">
         <v>36</v>
       </c>
@@ -4482,29 +4718,33 @@
         <v>37</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="15.95">
+    <row r="118" spans="1:20" ht="15.6">
       <c r="A118" s="10" t="s">
         <v>276</v>
       </c>
       <c r="C118" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="D118" s="12"/>
+      <c r="D118" s="12">
+        <v>2019</v>
+      </c>
       <c r="E118" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T118" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="15.95">
+    <row r="119" spans="1:20" ht="15.6">
       <c r="A119" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C119" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="D119" s="12"/>
+      <c r="D119" s="12">
+        <v>2019</v>
+      </c>
       <c r="E119" s="16" t="s">
         <v>36</v>
       </c>
@@ -4515,14 +4755,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="15.95">
+    <row r="120" spans="1:20" ht="15.6">
       <c r="A120" s="10" t="s">
         <v>280</v>
       </c>
       <c r="C120" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="D120" s="12"/>
+      <c r="D120" s="12">
+        <v>2019</v>
+      </c>
       <c r="E120" s="16" t="s">
         <v>36</v>
       </c>
@@ -4533,14 +4775,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="68.099999999999994">
+    <row r="121" spans="1:20" ht="78">
       <c r="A121" s="10" t="s">
         <v>282</v>
       </c>
       <c r="C121" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="D121" s="12"/>
+      <c r="D121" s="12">
+        <v>2019</v>
+      </c>
       <c r="E121" s="20" t="s">
         <v>72</v>
       </c>
@@ -4551,14 +4795,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="15.95">
+    <row r="122" spans="1:20" ht="15.6">
       <c r="A122" s="10" t="s">
         <v>284</v>
       </c>
       <c r="C122" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="D122" s="12"/>
+      <c r="D122" s="12">
+        <v>2019</v>
+      </c>
       <c r="E122" s="16" t="s">
         <v>36</v>
       </c>
@@ -4569,59 +4815,67 @@
         <v>37</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="15.95">
+    <row r="123" spans="1:20" ht="15.6">
       <c r="A123" s="10" t="s">
         <v>286</v>
       </c>
       <c r="C123" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="D123" s="12"/>
+      <c r="D123" s="12">
+        <v>2019</v>
+      </c>
       <c r="E123" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T123" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="15.95">
+    <row r="124" spans="1:20" ht="15.6">
       <c r="A124" s="10" t="s">
         <v>288</v>
       </c>
       <c r="C124" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="D124" s="12"/>
+      <c r="D124" s="12">
+        <v>2019</v>
+      </c>
       <c r="E124" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T124" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="15.95">
+    <row r="125" spans="1:20" ht="15.6">
       <c r="A125" s="10" t="s">
         <v>290</v>
       </c>
       <c r="C125" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="D125" s="12"/>
+      <c r="D125" s="12">
+        <v>2019</v>
+      </c>
       <c r="E125" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T125" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="15.95">
+    <row r="126" spans="1:20" ht="15.6">
       <c r="A126" s="10" t="s">
         <v>292</v>
       </c>
       <c r="C126" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="D126" s="12"/>
+      <c r="D126" s="12">
+        <v>2019</v>
+      </c>
       <c r="E126" s="16" t="s">
         <v>36</v>
       </c>
@@ -4632,14 +4886,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="15.95">
+    <row r="127" spans="1:20" ht="15.6">
       <c r="A127" s="10" t="s">
         <v>294</v>
       </c>
       <c r="C127" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="D127" s="12"/>
+      <c r="D127" s="12">
+        <v>2019</v>
+      </c>
       <c r="E127" s="16" t="s">
         <v>36</v>
       </c>
@@ -4650,14 +4906,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="15.95">
+    <row r="128" spans="1:20" ht="15.6">
       <c r="A128" s="10" t="s">
         <v>296</v>
       </c>
       <c r="C128" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="D128" s="12"/>
+      <c r="D128" s="12">
+        <v>2019</v>
+      </c>
       <c r="E128" s="18" t="s">
         <v>50</v>
       </c>
@@ -4668,14 +4926,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="15.95">
+    <row r="129" spans="1:20" ht="15.6">
       <c r="A129" s="10" t="s">
         <v>298</v>
       </c>
       <c r="C129" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="D129" s="12"/>
+      <c r="D129" s="12">
+        <v>2019</v>
+      </c>
       <c r="E129" s="16" t="s">
         <v>36</v>
       </c>
@@ -4686,14 +4946,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="15.95">
+    <row r="130" spans="1:20" ht="15.6">
       <c r="A130" s="10" t="s">
         <v>300</v>
       </c>
       <c r="C130" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="D130" s="12"/>
+      <c r="D130" s="12">
+        <v>2019</v>
+      </c>
       <c r="E130" s="16" t="s">
         <v>36</v>
       </c>
@@ -4704,14 +4966,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="15.95">
+    <row r="131" spans="1:20" ht="15.6">
       <c r="A131" s="10" t="s">
         <v>302</v>
       </c>
       <c r="C131" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="D131" s="12"/>
+      <c r="D131" s="12">
+        <v>2019</v>
+      </c>
       <c r="E131" s="18" t="s">
         <v>50</v>
       </c>
@@ -4722,14 +4986,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="15.95">
+    <row r="132" spans="1:20" ht="15.6">
       <c r="A132" s="10" t="s">
         <v>304</v>
       </c>
       <c r="C132" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="D132" s="12"/>
+      <c r="D132" s="12">
+        <v>2019</v>
+      </c>
       <c r="E132" s="18" t="s">
         <v>50</v>
       </c>
@@ -4740,29 +5006,33 @@
         <v>37</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="15.95">
+    <row r="133" spans="1:20" ht="15.6">
       <c r="A133" s="10" t="s">
         <v>306</v>
       </c>
       <c r="C133" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="D133" s="12"/>
+      <c r="D133" s="12">
+        <v>2019</v>
+      </c>
       <c r="E133" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T133" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="15.95">
+    <row r="134" spans="1:20" ht="15.6">
       <c r="A134" s="10" t="s">
         <v>308</v>
       </c>
       <c r="C134" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="D134" s="12"/>
+      <c r="D134" s="12">
+        <v>2019</v>
+      </c>
       <c r="E134" s="16" t="s">
         <v>36</v>
       </c>
@@ -4773,44 +5043,50 @@
         <v>37</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="15.95">
+    <row r="135" spans="1:20" ht="15.6">
       <c r="A135" s="10" t="s">
         <v>310</v>
       </c>
       <c r="C135" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="D135" s="12"/>
+      <c r="D135" s="12">
+        <v>2019</v>
+      </c>
       <c r="E135" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T135" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="15.95">
+    <row r="136" spans="1:20" ht="15.6">
       <c r="A136" s="10" t="s">
         <v>312</v>
       </c>
       <c r="C136" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="D136" s="12"/>
+      <c r="D136" s="12">
+        <v>2019</v>
+      </c>
       <c r="E136" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T136" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="15.95">
+    <row r="137" spans="1:20" ht="15.6">
       <c r="A137" s="10" t="s">
         <v>314</v>
       </c>
       <c r="C137" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="D137" s="12"/>
+      <c r="D137" s="12">
+        <v>2019</v>
+      </c>
       <c r="E137" s="18" t="s">
         <v>50</v>
       </c>
@@ -4821,14 +5097,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="68.099999999999994">
+    <row r="138" spans="1:20" ht="78">
       <c r="A138" s="10" t="s">
         <v>316</v>
       </c>
       <c r="C138" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="D138" s="12"/>
+      <c r="D138" s="12">
+        <v>2019</v>
+      </c>
       <c r="E138" s="20" t="s">
         <v>72</v>
       </c>
@@ -4839,14 +5117,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="15.95">
+    <row r="139" spans="1:20" ht="15.6">
       <c r="A139" s="10" t="s">
         <v>318</v>
       </c>
       <c r="C139" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="D139" s="12"/>
+      <c r="D139" s="12">
+        <v>2019</v>
+      </c>
       <c r="E139" s="16" t="s">
         <v>36</v>
       </c>
@@ -4857,14 +5137,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="15.95">
+    <row r="140" spans="1:20" ht="15.6">
       <c r="A140" s="10" t="s">
         <v>320</v>
       </c>
       <c r="C140" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="D140" s="12"/>
+      <c r="D140" s="12">
+        <v>2019</v>
+      </c>
       <c r="E140" s="16" t="s">
         <v>36</v>
       </c>
@@ -4872,14 +5154,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="15.95">
+    <row r="141" spans="1:20" ht="15.6">
       <c r="A141" s="10" t="s">
         <v>322</v>
       </c>
       <c r="C141" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="D141" s="12"/>
+      <c r="D141" s="12">
+        <v>2019</v>
+      </c>
       <c r="E141" s="16" t="s">
         <v>36</v>
       </c>
@@ -4890,14 +5174,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="15.95">
+    <row r="142" spans="1:20" ht="15.6">
       <c r="A142" s="10" t="s">
         <v>324</v>
       </c>
       <c r="C142" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="D142" s="12"/>
+      <c r="D142" s="12">
+        <v>2019</v>
+      </c>
       <c r="E142" s="16" t="s">
         <v>36</v>
       </c>
@@ -4905,14 +5191,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="15.95">
+    <row r="143" spans="1:20" ht="15.6">
       <c r="A143" s="10" t="s">
         <v>326</v>
       </c>
       <c r="C143" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="D143" s="12"/>
+      <c r="D143" s="12">
+        <v>2019</v>
+      </c>
       <c r="E143" s="16" t="s">
         <v>36</v>
       </c>
@@ -4923,29 +5211,33 @@
         <v>37</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="15.95">
+    <row r="144" spans="1:20" ht="15.6">
       <c r="A144" s="10" t="s">
         <v>328</v>
       </c>
       <c r="C144" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="D144" s="12"/>
+      <c r="D144" s="12">
+        <v>2019</v>
+      </c>
       <c r="E144" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T144" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="15.95">
+    <row r="145" spans="1:20" ht="15.6">
       <c r="A145" s="10" t="s">
         <v>330</v>
       </c>
       <c r="C145" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="D145" s="12"/>
+      <c r="D145" s="12">
+        <v>2019</v>
+      </c>
       <c r="E145" s="16" t="s">
         <v>36</v>
       </c>
@@ -4956,14 +5248,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="15.95">
+    <row r="146" spans="1:20" ht="15.6">
       <c r="A146" s="10" t="s">
         <v>332</v>
       </c>
       <c r="C146" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="D146" s="12"/>
+      <c r="D146" s="12">
+        <v>2019</v>
+      </c>
       <c r="E146" s="16" t="s">
         <v>36</v>
       </c>
@@ -4974,14 +5268,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="15.95">
+    <row r="147" spans="1:20" ht="15.6">
       <c r="A147" s="10" t="s">
         <v>334</v>
       </c>
       <c r="C147" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="D147" s="12"/>
+      <c r="D147" s="12">
+        <v>2019</v>
+      </c>
       <c r="E147" s="16" t="s">
         <v>36</v>
       </c>
@@ -4992,14 +5288,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="15.95">
+    <row r="148" spans="1:20" ht="15.6">
       <c r="A148" s="10" t="s">
         <v>336</v>
       </c>
       <c r="C148" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="D148" s="12"/>
+      <c r="D148" s="12">
+        <v>2019</v>
+      </c>
       <c r="E148" s="18" t="s">
         <v>50</v>
       </c>
@@ -5010,119 +5308,135 @@
         <v>37</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="15.95">
+    <row r="149" spans="1:20" ht="15.6">
       <c r="A149" s="10" t="s">
         <v>338</v>
       </c>
       <c r="C149" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="D149" s="12"/>
+      <c r="D149" s="12">
+        <v>2019</v>
+      </c>
       <c r="E149" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T149" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="15.95">
+    <row r="150" spans="1:20" ht="15.6">
       <c r="A150" s="10" t="s">
         <v>340</v>
       </c>
       <c r="C150" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="D150" s="12"/>
+      <c r="D150" s="12">
+        <v>2019</v>
+      </c>
       <c r="E150" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T150" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="15.95">
+    <row r="151" spans="1:20" ht="15.6">
       <c r="A151" s="10" t="s">
         <v>342</v>
       </c>
       <c r="C151" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="D151" s="12"/>
+      <c r="D151" s="12">
+        <v>2019</v>
+      </c>
       <c r="E151" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T151" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="15.95">
+    <row r="152" spans="1:20" ht="15.6">
       <c r="A152" s="10" t="s">
         <v>344</v>
       </c>
       <c r="C152" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="D152" s="12"/>
+      <c r="D152" s="12">
+        <v>2019</v>
+      </c>
       <c r="E152" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T152" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="15.95">
+    <row r="153" spans="1:20" ht="15.6">
       <c r="A153" s="10" t="s">
         <v>346</v>
       </c>
       <c r="C153" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="D153" s="12"/>
+      <c r="D153" s="12">
+        <v>2019</v>
+      </c>
       <c r="E153" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T153" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="15.95">
+    <row r="154" spans="1:20" ht="15.6">
       <c r="A154" s="10" t="s">
         <v>348</v>
       </c>
       <c r="C154" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="D154" s="12"/>
+      <c r="D154" s="12">
+        <v>2019</v>
+      </c>
       <c r="E154" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T154" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="15.95">
+    <row r="155" spans="1:20" ht="15.6">
       <c r="A155" s="10" t="s">
         <v>350</v>
       </c>
       <c r="C155" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="D155" s="12"/>
+      <c r="D155" s="12">
+        <v>2019</v>
+      </c>
       <c r="E155" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T155" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="15.95">
+    <row r="156" spans="1:20" ht="15.6">
       <c r="A156" s="10" t="s">
         <v>352</v>
       </c>
       <c r="C156" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="D156" s="12"/>
+      <c r="D156" s="12">
+        <v>2019</v>
+      </c>
       <c r="E156" s="16" t="s">
         <v>36</v>
       </c>
@@ -5133,14 +5447,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="68.099999999999994">
+    <row r="157" spans="1:20" ht="78">
       <c r="A157" s="10" t="s">
         <v>354</v>
       </c>
       <c r="C157" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="D157" s="12"/>
+      <c r="D157" s="12">
+        <v>2019</v>
+      </c>
       <c r="E157" s="20" t="s">
         <v>72</v>
       </c>
@@ -5151,14 +5467,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="15.95">
+    <row r="158" spans="1:20" ht="15.6">
       <c r="A158" s="10" t="s">
         <v>356</v>
       </c>
       <c r="C158" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="D158" s="12"/>
+      <c r="D158" s="12">
+        <v>2019</v>
+      </c>
       <c r="E158" s="18" t="s">
         <v>50</v>
       </c>
@@ -5169,29 +5487,33 @@
         <v>37</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="15.95">
+    <row r="159" spans="1:20" ht="15.6">
       <c r="A159" s="10" t="s">
         <v>358</v>
       </c>
       <c r="C159" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="D159" s="12"/>
+      <c r="D159" s="12">
+        <v>2019</v>
+      </c>
       <c r="E159" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T159" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="15.95">
+    <row r="160" spans="1:20" ht="15.6">
       <c r="A160" s="10" t="s">
         <v>360</v>
       </c>
       <c r="C160" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="D160" s="12"/>
+      <c r="D160" s="12">
+        <v>2019</v>
+      </c>
       <c r="E160" s="16" t="s">
         <v>36</v>
       </c>
@@ -5202,14 +5524,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="15.95">
+    <row r="161" spans="1:20" ht="15.6">
       <c r="A161" s="10" t="s">
         <v>362</v>
       </c>
       <c r="C161" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="D161" s="12"/>
+      <c r="D161" s="12">
+        <v>2019</v>
+      </c>
       <c r="E161" s="16" t="s">
         <v>36</v>
       </c>
@@ -5220,29 +5544,33 @@
         <v>37</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="15.95">
+    <row r="162" spans="1:20" ht="15.6">
       <c r="A162" s="10" t="s">
         <v>364</v>
       </c>
       <c r="C162" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="D162" s="12"/>
+      <c r="D162" s="12">
+        <v>2019</v>
+      </c>
       <c r="E162" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T162" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="68.099999999999994">
+    <row r="163" spans="1:20" ht="78">
       <c r="A163" s="10" t="s">
         <v>366</v>
       </c>
       <c r="C163" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="D163" s="12"/>
+      <c r="D163" s="12">
+        <v>2019</v>
+      </c>
       <c r="E163" s="20" t="s">
         <v>72</v>
       </c>
@@ -5253,14 +5581,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="15.95">
+    <row r="164" spans="1:20" ht="15.6">
       <c r="A164" s="10" t="s">
         <v>368</v>
       </c>
       <c r="C164" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="D164" s="12"/>
+      <c r="D164" s="12">
+        <v>2019</v>
+      </c>
       <c r="E164" s="16" t="s">
         <v>36</v>
       </c>
@@ -5271,14 +5601,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="15.95">
+    <row r="165" spans="1:20" ht="15.6">
       <c r="A165" s="10" t="s">
         <v>370</v>
       </c>
       <c r="C165" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="D165" s="12"/>
+      <c r="D165" s="12">
+        <v>2019</v>
+      </c>
       <c r="E165" s="16" t="s">
         <v>36</v>
       </c>
@@ -5289,14 +5621,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="15.95">
+    <row r="166" spans="1:20" ht="15.6">
       <c r="A166" s="10" t="s">
         <v>372</v>
       </c>
       <c r="C166" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="D166" s="12"/>
+      <c r="D166" s="12">
+        <v>2019</v>
+      </c>
       <c r="E166" s="16" t="s">
         <v>36</v>
       </c>
@@ -5307,14 +5641,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="15.95">
+    <row r="167" spans="1:20" ht="15.6">
       <c r="A167" s="10" t="s">
         <v>374</v>
       </c>
       <c r="C167" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="D167" s="12"/>
+      <c r="D167" s="12">
+        <v>2019</v>
+      </c>
       <c r="E167" s="16" t="s">
         <v>36</v>
       </c>
@@ -5325,14 +5661,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="15.95">
+    <row r="168" spans="1:20" ht="15.6">
       <c r="A168" s="10" t="s">
         <v>376</v>
       </c>
       <c r="C168" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="D168" s="12"/>
+      <c r="D168" s="12">
+        <v>2019</v>
+      </c>
       <c r="E168" s="18" t="s">
         <v>50</v>
       </c>
@@ -5343,29 +5681,33 @@
         <v>37</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="15.95">
+    <row r="169" spans="1:20" ht="15.6">
       <c r="A169" s="10" t="s">
         <v>378</v>
       </c>
       <c r="C169" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="D169" s="12"/>
+      <c r="D169" s="12">
+        <v>2019</v>
+      </c>
       <c r="E169" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T169" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="15.95">
+    <row r="170" spans="1:20" ht="15.6">
       <c r="A170" s="10" t="s">
         <v>380</v>
       </c>
       <c r="C170" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="D170" s="12"/>
+      <c r="D170" s="12">
+        <v>2019</v>
+      </c>
       <c r="E170" s="16" t="s">
         <v>36</v>
       </c>
@@ -5376,14 +5718,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="15.95">
+    <row r="171" spans="1:20" ht="15.6">
       <c r="A171" s="10" t="s">
         <v>382</v>
       </c>
       <c r="C171" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="D171" s="12"/>
+      <c r="D171" s="12">
+        <v>2019</v>
+      </c>
       <c r="E171" s="16" t="s">
         <v>36</v>
       </c>
@@ -5394,29 +5738,33 @@
         <v>37</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="15.95">
+    <row r="172" spans="1:20" ht="15.6">
       <c r="A172" s="10" t="s">
         <v>384</v>
       </c>
       <c r="C172" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="D172" s="12"/>
+      <c r="D172" s="12">
+        <v>2019</v>
+      </c>
       <c r="E172" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T172" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="15.95">
+    <row r="173" spans="1:20" ht="15.6">
       <c r="A173" s="10" t="s">
         <v>386</v>
       </c>
       <c r="C173" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="D173" s="12"/>
+      <c r="D173" s="12">
+        <v>2019</v>
+      </c>
       <c r="E173" s="16" t="s">
         <v>36</v>
       </c>
@@ -5427,14 +5775,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="174" spans="1:20" ht="15.95">
+    <row r="174" spans="1:20" ht="15.6">
       <c r="A174" s="10" t="s">
         <v>388</v>
       </c>
       <c r="C174" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="D174" s="12"/>
+      <c r="D174" s="12">
+        <v>2019</v>
+      </c>
       <c r="E174" s="16" t="s">
         <v>36</v>
       </c>
@@ -5445,14 +5795,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="175" spans="1:20" ht="15.95">
+    <row r="175" spans="1:20" ht="15.6">
       <c r="A175" s="10" t="s">
         <v>390</v>
       </c>
       <c r="C175" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="D175" s="12"/>
+      <c r="D175" s="12">
+        <v>2019</v>
+      </c>
       <c r="E175" s="18" t="s">
         <v>50</v>
       </c>
@@ -5463,29 +5815,33 @@
         <v>37</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="15.95">
+    <row r="176" spans="1:20" ht="15.6">
       <c r="A176" s="10" t="s">
         <v>392</v>
       </c>
       <c r="C176" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="D176" s="12"/>
+      <c r="D176" s="12">
+        <v>2019</v>
+      </c>
       <c r="E176" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T176" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="15.95">
+    <row r="177" spans="1:20" ht="15.6">
       <c r="A177" s="10" t="s">
         <v>394</v>
       </c>
       <c r="C177" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="D177" s="12"/>
+      <c r="D177" s="12">
+        <v>2019</v>
+      </c>
       <c r="E177" s="18" t="s">
         <v>50</v>
       </c>
@@ -5496,29 +5852,33 @@
         <v>37</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="15.95">
+    <row r="178" spans="1:20" ht="15.6">
       <c r="A178" s="10" t="s">
         <v>396</v>
       </c>
       <c r="C178" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="D178" s="12"/>
+      <c r="D178" s="12">
+        <v>2019</v>
+      </c>
       <c r="E178" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T178" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="15.95">
+    <row r="179" spans="1:20" ht="15.6">
       <c r="A179" s="10" t="s">
         <v>398</v>
       </c>
       <c r="C179" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="D179" s="12"/>
+      <c r="D179" s="12">
+        <v>2019</v>
+      </c>
       <c r="E179" s="18" t="s">
         <v>50</v>
       </c>
@@ -5529,14 +5889,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="15.95">
+    <row r="180" spans="1:20" ht="15.6">
       <c r="A180" s="10" t="s">
         <v>400</v>
       </c>
       <c r="C180" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="D180" s="12"/>
+      <c r="D180" s="12">
+        <v>2019</v>
+      </c>
       <c r="E180" s="16" t="s">
         <v>36</v>
       </c>
@@ -5547,14 +5909,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="15.95">
+    <row r="181" spans="1:20" ht="15.6">
       <c r="A181" s="10" t="s">
         <v>402</v>
       </c>
       <c r="C181" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="D181" s="12"/>
+      <c r="D181" s="12">
+        <v>2019</v>
+      </c>
       <c r="E181" s="16" t="s">
         <v>36</v>
       </c>
@@ -5565,14 +5929,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="182" spans="1:20" ht="68.099999999999994">
+    <row r="182" spans="1:20" ht="78">
       <c r="A182" s="10" t="s">
         <v>404</v>
       </c>
       <c r="C182" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="D182" s="12"/>
+      <c r="D182" s="12">
+        <v>2019</v>
+      </c>
       <c r="E182" s="20" t="s">
         <v>72</v>
       </c>
@@ -5583,29 +5949,33 @@
         <v>37</v>
       </c>
     </row>
-    <row r="183" spans="1:20" ht="15.95">
+    <row r="183" spans="1:20" ht="15.6">
       <c r="A183" s="10" t="s">
         <v>406</v>
       </c>
       <c r="C183" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="D183" s="12"/>
+      <c r="D183" s="12">
+        <v>2019</v>
+      </c>
       <c r="E183" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T183" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="15.95">
+    <row r="184" spans="1:20" ht="15.6">
       <c r="A184" s="10" t="s">
         <v>408</v>
       </c>
       <c r="C184" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="D184" s="12"/>
+      <c r="D184" s="12">
+        <v>2019</v>
+      </c>
       <c r="E184" s="16" t="s">
         <v>36</v>
       </c>
@@ -5616,14 +5986,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="15.95">
+    <row r="185" spans="1:20" ht="15.6">
       <c r="A185" s="10" t="s">
         <v>410</v>
       </c>
       <c r="C185" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="D185" s="12"/>
+      <c r="D185" s="12">
+        <v>2019</v>
+      </c>
       <c r="E185" s="16" t="s">
         <v>36</v>
       </c>
@@ -5634,29 +6006,33 @@
         <v>37</v>
       </c>
     </row>
-    <row r="186" spans="1:20" ht="15.95">
+    <row r="186" spans="1:20" ht="15.6">
       <c r="A186" s="10" t="s">
         <v>412</v>
       </c>
       <c r="C186" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="D186" s="12"/>
+      <c r="D186" s="12">
+        <v>2019</v>
+      </c>
       <c r="E186" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T186" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="187" spans="1:20" ht="15.95">
+    <row r="187" spans="1:20" ht="15.6">
       <c r="A187" s="10" t="s">
         <v>414</v>
       </c>
       <c r="C187" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="D187" s="12"/>
+      <c r="D187" s="12">
+        <v>2019</v>
+      </c>
       <c r="E187" s="18" t="s">
         <v>50</v>
       </c>
@@ -5667,14 +6043,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="188" spans="1:20" ht="15.95">
+    <row r="188" spans="1:20" ht="15.6">
       <c r="A188" s="10" t="s">
         <v>416</v>
       </c>
       <c r="C188" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="D188" s="12"/>
+      <c r="D188" s="12">
+        <v>2019</v>
+      </c>
       <c r="E188" s="18" t="s">
         <v>50</v>
       </c>
@@ -5685,14 +6063,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="189" spans="1:20" ht="15.95">
+    <row r="189" spans="1:20" ht="15.6">
       <c r="A189" s="10" t="s">
         <v>418</v>
       </c>
       <c r="C189" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="D189" s="12"/>
+      <c r="D189" s="12">
+        <v>2019</v>
+      </c>
       <c r="E189" s="18" t="s">
         <v>50</v>
       </c>
@@ -5703,14 +6083,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="190" spans="1:20" ht="15.95">
+    <row r="190" spans="1:20" ht="15.6">
       <c r="A190" s="10" t="s">
         <v>420</v>
       </c>
       <c r="C190" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="D190" s="12"/>
+      <c r="D190" s="12">
+        <v>2019</v>
+      </c>
       <c r="E190" s="16" t="s">
         <v>36</v>
       </c>
@@ -5721,29 +6103,33 @@
         <v>37</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="15.95">
+    <row r="191" spans="1:20" ht="15.6">
       <c r="A191" s="10" t="s">
         <v>422</v>
       </c>
       <c r="C191" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="D191" s="12"/>
+      <c r="D191" s="12">
+        <v>2019</v>
+      </c>
       <c r="E191" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T191" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="192" spans="1:20" ht="68.099999999999994">
+    <row r="192" spans="1:20" ht="78">
       <c r="A192" s="10" t="s">
         <v>424</v>
       </c>
       <c r="C192" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="D192" s="12"/>
+      <c r="D192" s="12">
+        <v>2019</v>
+      </c>
       <c r="E192" s="20" t="s">
         <v>72</v>
       </c>
@@ -5754,14 +6140,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="15.95">
+    <row r="193" spans="1:20" ht="15.6">
       <c r="A193" s="10" t="s">
         <v>426</v>
       </c>
       <c r="C193" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="D193" s="12"/>
+      <c r="D193" s="12">
+        <v>2019</v>
+      </c>
       <c r="E193" s="16" t="s">
         <v>36</v>
       </c>
@@ -5772,14 +6160,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="15.95">
+    <row r="194" spans="1:20" ht="15.6">
       <c r="A194" s="10" t="s">
         <v>428</v>
       </c>
       <c r="C194" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="D194" s="12"/>
+      <c r="D194" s="12">
+        <v>2019</v>
+      </c>
       <c r="E194" s="18" t="s">
         <v>50</v>
       </c>
@@ -5790,14 +6180,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="195" spans="1:20" ht="15.95">
+    <row r="195" spans="1:20" ht="15.6">
       <c r="A195" s="10" t="s">
         <v>430</v>
       </c>
       <c r="C195" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="D195" s="12"/>
+      <c r="D195" s="12">
+        <v>2019</v>
+      </c>
       <c r="E195" s="16" t="s">
         <v>36</v>
       </c>
@@ -5808,22 +6200,25 @@
         <v>37</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="15.95">
+    <row r="196" spans="1:20" ht="15.6">
       <c r="A196" s="10" t="s">
         <v>432</v>
       </c>
       <c r="C196" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="D196" s="12"/>
+      <c r="D196" s="12">
+        <v>2019</v>
+      </c>
       <c r="E196" s="18" t="s">
-        <v>43</v>
+        <v>581</v>
       </c>
       <c r="T196" s="6" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AJ1" xr:uid="{B98BEB33-9373-461F-BB90-F05006A0B184}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5837,21 +6232,21 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" customWidth="1"/>
-    <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="89.140625" customWidth="1"/>
-    <col min="20" max="20" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" customWidth="1"/>
+    <col min="18" max="18" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="89.109375" customWidth="1"/>
+    <col min="20" max="20" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -13427,11 +13822,11 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="40.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" customWidth="1"/>
+    <col min="1" max="1" width="40.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13926,17 +14321,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6C7E77-FF0A-E84A-99FE-DC85AB833D10}">
   <dimension ref="A1:G199"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="23.28515625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="93.85546875" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="93.88671875" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -13959,7 +14354,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="90">
+    <row r="4" spans="1:7" ht="72">
       <c r="D4" s="20" t="s">
         <v>577</v>
       </c>
@@ -13973,7 +14368,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75">
+    <row r="5" spans="1:7" ht="15.6">
       <c r="B5" s="2"/>
       <c r="C5" s="11" t="s">
         <v>35</v>
@@ -13988,7 +14383,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.95">
+    <row r="6" spans="1:7" ht="15.6">
       <c r="B6" s="2"/>
       <c r="C6" t="s">
         <v>40</v>
@@ -14003,7 +14398,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.95">
+    <row r="7" spans="1:7" ht="15.6">
       <c r="C7" s="11" t="s">
         <v>42</v>
       </c>
@@ -14014,7 +14409,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.95">
+    <row r="8" spans="1:7" ht="15.6">
       <c r="B8" s="2"/>
       <c r="C8" s="11" t="s">
         <v>45</v>
@@ -14026,7 +14421,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.95">
+    <row r="9" spans="1:7" ht="15.6">
       <c r="B9" s="2"/>
       <c r="C9" s="11" t="s">
         <v>47</v>
@@ -14041,7 +14436,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.95">
+    <row r="10" spans="1:7" ht="15.6">
       <c r="B10" s="2"/>
       <c r="C10" s="11" t="s">
         <v>49</v>
@@ -14056,7 +14451,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.95">
+    <row r="11" spans="1:7" ht="15.6">
       <c r="C11" s="11" t="s">
         <v>52</v>
       </c>
@@ -14070,7 +14465,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.95">
+    <row r="12" spans="1:7" ht="15.6">
       <c r="B12" s="2"/>
       <c r="C12" s="11" t="s">
         <v>54</v>
@@ -14085,7 +14480,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.95">
+    <row r="13" spans="1:7" ht="15.6">
       <c r="B13" s="2"/>
       <c r="C13" s="11" t="s">
         <v>56</v>
@@ -14100,7 +14495,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.95">
+    <row r="14" spans="1:7" ht="15.6">
       <c r="B14" s="2"/>
       <c r="C14" s="11" t="s">
         <v>59</v>
@@ -14115,7 +14510,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.95">
+    <row r="15" spans="1:7" ht="15.6">
       <c r="B15" s="2"/>
       <c r="C15" s="11" t="s">
         <v>61</v>
@@ -14130,7 +14525,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.95">
+    <row r="16" spans="1:7" ht="15.6">
       <c r="B16" s="2"/>
       <c r="C16" s="11" t="s">
         <v>63</v>
@@ -14142,7 +14537,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="15.95">
+    <row r="17" spans="2:6" ht="15.6">
       <c r="B17" s="2"/>
       <c r="C17" s="11" t="s">
         <v>65</v>
@@ -14154,7 +14549,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="15.95">
+    <row r="18" spans="2:6" ht="15.6">
       <c r="C18" s="11" t="s">
         <v>67</v>
       </c>
@@ -14168,7 +14563,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="15.95">
+    <row r="19" spans="2:6" ht="15.6">
       <c r="B19" s="8"/>
       <c r="C19" s="11" t="s">
         <v>69</v>
@@ -14180,7 +14575,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="17.100000000000001">
+    <row r="20" spans="2:6" ht="15.6">
       <c r="B20" s="2"/>
       <c r="C20" s="11" t="s">
         <v>71</v>
@@ -14195,7 +14590,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="15.95">
+    <row r="21" spans="2:6" ht="15.6">
       <c r="B21" s="2"/>
       <c r="C21" s="11" t="s">
         <v>74</v>
@@ -14210,7 +14605,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="15.95">
+    <row r="22" spans="2:6" ht="15.6">
       <c r="C22" s="11" t="s">
         <v>76</v>
       </c>
@@ -14224,7 +14619,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="15.95">
+    <row r="23" spans="2:6" ht="15.6">
       <c r="C23" s="11" t="s">
         <v>78</v>
       </c>
@@ -14235,7 +14630,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="17.100000000000001">
+    <row r="24" spans="2:6" ht="15.6">
       <c r="C24" s="11" t="s">
         <v>80</v>
       </c>
@@ -14249,7 +14644,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="17.100000000000001">
+    <row r="25" spans="2:6" ht="15.6">
       <c r="B25" s="2"/>
       <c r="C25" s="11" t="s">
         <v>82</v>
@@ -14264,7 +14659,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="15.95">
+    <row r="26" spans="2:6" ht="15.6">
       <c r="B26" s="2"/>
       <c r="C26" s="11" t="s">
         <v>84</v>
@@ -14279,7 +14674,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="15.95">
+    <row r="27" spans="2:6" ht="15.6">
       <c r="C27" s="11" t="s">
         <v>86</v>
       </c>
@@ -14290,7 +14685,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="15.95">
+    <row r="28" spans="2:6" ht="15.6">
       <c r="C28" s="11" t="s">
         <v>88</v>
       </c>
@@ -14304,7 +14699,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="15.95">
+    <row r="29" spans="2:6" ht="15.6">
       <c r="B29" s="2"/>
       <c r="C29" s="11" t="s">
         <v>90</v>
@@ -14316,7 +14711,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="15.95">
+    <row r="30" spans="2:6" ht="15.6">
       <c r="B30" s="2"/>
       <c r="C30" s="11" t="s">
         <v>92</v>
@@ -14331,7 +14726,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="15.95">
+    <row r="31" spans="2:6" ht="15.6">
       <c r="B31" s="2"/>
       <c r="C31" s="11" t="s">
         <v>94</v>
@@ -14346,7 +14741,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="15.95">
+    <row r="32" spans="2:6" ht="15.6">
       <c r="B32" s="2"/>
       <c r="C32" s="11" t="s">
         <v>96</v>
@@ -14358,7 +14753,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="17.100000000000001">
+    <row r="33" spans="2:6" ht="15.6">
       <c r="C33" s="11" t="s">
         <v>98</v>
       </c>
@@ -14372,7 +14767,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="15.95">
+    <row r="34" spans="2:6" ht="15.6">
       <c r="C34" s="11" t="s">
         <v>101</v>
       </c>
@@ -14383,7 +14778,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="15.95">
+    <row r="35" spans="2:6" ht="15.6">
       <c r="C35" s="11" t="s">
         <v>103</v>
       </c>
@@ -14394,7 +14789,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="15.95">
+    <row r="36" spans="2:6" ht="15.6">
       <c r="C36" s="11" t="s">
         <v>105</v>
       </c>
@@ -14408,7 +14803,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="17.100000000000001">
+    <row r="37" spans="2:6" ht="15.6">
       <c r="C37" s="11" t="s">
         <v>107</v>
       </c>
@@ -14422,7 +14817,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="15.95">
+    <row r="38" spans="2:6" ht="15.6">
       <c r="B38" s="2"/>
       <c r="C38" s="11" t="s">
         <v>109</v>
@@ -14434,7 +14829,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="15.95">
+    <row r="39" spans="2:6" ht="15.6">
       <c r="B39" s="2"/>
       <c r="C39" s="11" t="s">
         <v>111</v>
@@ -14449,7 +14844,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="15.95">
+    <row r="40" spans="2:6" ht="15.6">
       <c r="B40" s="2"/>
       <c r="C40" s="11" t="s">
         <v>113</v>
@@ -14464,7 +14859,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="15.95">
+    <row r="41" spans="2:6" ht="15.6">
       <c r="C41" s="11" t="s">
         <v>115</v>
       </c>
@@ -14478,7 +14873,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="15.95">
+    <row r="42" spans="2:6" ht="15.6">
       <c r="B42" s="2"/>
       <c r="C42" s="11" t="s">
         <v>117</v>
@@ -14490,7 +14885,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="2:6" ht="17.100000000000001">
+    <row r="43" spans="2:6" ht="15.6">
       <c r="B43" s="2"/>
       <c r="C43" s="11" t="s">
         <v>119</v>
@@ -14505,7 +14900,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="17.100000000000001">
+    <row r="44" spans="2:6" ht="15.6">
       <c r="C44" s="11" t="s">
         <v>121</v>
       </c>
@@ -14519,7 +14914,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="17.100000000000001">
+    <row r="45" spans="2:6" ht="15.6">
       <c r="B45" s="2"/>
       <c r="C45" s="11" t="s">
         <v>123</v>
@@ -14534,7 +14929,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="15.95">
+    <row r="46" spans="2:6" ht="15.6">
       <c r="C46" s="11" t="s">
         <v>125</v>
       </c>
@@ -14548,7 +14943,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="15.95">
+    <row r="47" spans="2:6" ht="15.6">
       <c r="B47" s="2"/>
       <c r="C47" s="11" t="s">
         <v>127</v>
@@ -14563,7 +14958,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="15.95">
+    <row r="48" spans="2:6" ht="15.6">
       <c r="B48" s="2"/>
       <c r="C48" s="11" t="s">
         <v>129</v>
@@ -14575,7 +14970,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="2:6" ht="15.95">
+    <row r="49" spans="2:6" ht="15.6">
       <c r="B49" s="2"/>
       <c r="C49" s="11" t="s">
         <v>131</v>
@@ -14587,7 +14982,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="2:6" ht="15.95">
+    <row r="50" spans="2:6" ht="15.6">
       <c r="C50" s="11" t="s">
         <v>133</v>
       </c>
@@ -14601,7 +14996,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="51" spans="2:6" ht="15.95">
+    <row r="51" spans="2:6" ht="15.6">
       <c r="B51" s="2"/>
       <c r="C51" s="11" t="s">
         <v>135</v>
@@ -14616,7 +15011,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="2:6" ht="15.95">
+    <row r="52" spans="2:6" ht="15.6">
       <c r="C52" s="11" t="s">
         <v>137</v>
       </c>
@@ -14627,7 +15022,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="2:6" ht="15.95">
+    <row r="53" spans="2:6" ht="15.6">
       <c r="C53" s="11" t="s">
         <v>139</v>
       </c>
@@ -14638,7 +15033,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="15.95">
+    <row r="54" spans="2:6" ht="15.6">
       <c r="C54" s="11" t="s">
         <v>141</v>
       </c>
@@ -14652,7 +15047,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="55" spans="2:6" ht="15.95">
+    <row r="55" spans="2:6" ht="15.6">
       <c r="C55" s="11" t="s">
         <v>143</v>
       </c>
@@ -14666,7 +15061,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="56" spans="2:6" ht="17.100000000000001">
+    <row r="56" spans="2:6" ht="15.6">
       <c r="C56" s="11" t="s">
         <v>145</v>
       </c>
@@ -14680,7 +15075,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="57" spans="2:6" ht="15.95">
+    <row r="57" spans="2:6" ht="15.6">
       <c r="C57" s="11" t="s">
         <v>147</v>
       </c>
@@ -14694,7 +15089,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="58" spans="2:6" ht="15.95">
+    <row r="58" spans="2:6" ht="15.6">
       <c r="C58" s="11" t="s">
         <v>149</v>
       </c>
@@ -14705,7 +15100,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="2:6" ht="17.100000000000001">
+    <row r="59" spans="2:6" ht="15.6">
       <c r="C59" s="11" t="s">
         <v>151</v>
       </c>
@@ -14719,7 +15114,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="60" spans="2:6" ht="15.95">
+    <row r="60" spans="2:6" ht="15.6">
       <c r="C60" s="11" t="s">
         <v>153</v>
       </c>
@@ -14733,7 +15128,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="61" spans="2:6" ht="15.95">
+    <row r="61" spans="2:6" ht="15.6">
       <c r="C61" s="11" t="s">
         <v>155</v>
       </c>
@@ -14744,7 +15139,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="2:6" ht="15.95">
+    <row r="62" spans="2:6" ht="15.6">
       <c r="C62" s="11" t="s">
         <v>157</v>
       </c>
@@ -14758,7 +15153,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="63" spans="2:6" ht="17.100000000000001">
+    <row r="63" spans="2:6" ht="15.6">
       <c r="B63" s="2"/>
       <c r="C63" s="11" t="s">
         <v>159</v>
@@ -14773,7 +15168,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="64" spans="2:6" ht="15.95">
+    <row r="64" spans="2:6" ht="15.6">
       <c r="C64" s="11" t="s">
         <v>161</v>
       </c>
@@ -14787,7 +15182,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="65" spans="2:6" ht="15.95">
+    <row r="65" spans="2:6" ht="15.6">
       <c r="B65" s="2"/>
       <c r="C65" s="11" t="s">
         <v>164</v>
@@ -14802,7 +15197,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="2:6" ht="15.95">
+    <row r="66" spans="2:6" ht="15.6">
       <c r="C66" s="11" t="s">
         <v>166</v>
       </c>
@@ -14813,7 +15208,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="2:6" ht="15.95">
+    <row r="67" spans="2:6" ht="15.6">
       <c r="C67" s="11" t="s">
         <v>168</v>
       </c>
@@ -14824,7 +15219,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="2:6" ht="15.95">
+    <row r="68" spans="2:6" ht="15.6">
       <c r="B68" s="2"/>
       <c r="C68" s="11" t="s">
         <v>170</v>
@@ -14839,7 +15234,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="69" spans="2:6" ht="15.95">
+    <row r="69" spans="2:6" ht="15.6">
       <c r="C69" s="11" t="s">
         <v>172</v>
       </c>
@@ -14853,7 +15248,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="70" spans="2:6" ht="17.100000000000001">
+    <row r="70" spans="2:6" ht="15.6">
       <c r="C70" s="11" t="s">
         <v>174</v>
       </c>
@@ -14867,7 +15262,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="71" spans="2:6" ht="15.95">
+    <row r="71" spans="2:6" ht="15.6">
       <c r="C71" s="11" t="s">
         <v>176</v>
       </c>
@@ -14881,7 +15276,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="72" spans="2:6" ht="15.95">
+    <row r="72" spans="2:6" ht="15.6">
       <c r="C72" s="11" t="s">
         <v>178</v>
       </c>
@@ -14892,7 +15287,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="2:6" ht="15.95">
+    <row r="73" spans="2:6" ht="15.6">
       <c r="C73" s="11" t="s">
         <v>180</v>
       </c>
@@ -14906,7 +15301,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="74" spans="2:6" ht="15.95">
+    <row r="74" spans="2:6" ht="15.6">
       <c r="C74" s="11" t="s">
         <v>182</v>
       </c>
@@ -14920,7 +15315,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="75" spans="2:6" ht="17.100000000000001">
+    <row r="75" spans="2:6" ht="15.6">
       <c r="C75" s="11" t="s">
         <v>184</v>
       </c>
@@ -14934,7 +15329,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="76" spans="2:6" ht="15.95">
+    <row r="76" spans="2:6" ht="15.6">
       <c r="C76" s="11" t="s">
         <v>186</v>
       </c>
@@ -14948,7 +15343,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="77" spans="2:6" ht="17.100000000000001">
+    <row r="77" spans="2:6" ht="15.6">
       <c r="C77" s="11" t="s">
         <v>188</v>
       </c>
@@ -14962,7 +15357,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="2:6" ht="15.95">
+    <row r="78" spans="2:6" ht="15.6">
       <c r="C78" s="11" t="s">
         <v>190</v>
       </c>
@@ -14976,7 +15371,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="79" spans="2:6" ht="15.95">
+    <row r="79" spans="2:6" ht="15.6">
       <c r="C79" s="11" t="s">
         <v>192</v>
       </c>
@@ -14990,7 +15385,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="2:6" ht="15.95">
+    <row r="80" spans="2:6" ht="15.6">
       <c r="C80" s="11" t="s">
         <v>194</v>
       </c>
@@ -15004,7 +15399,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="81" spans="2:6" ht="15.95">
+    <row r="81" spans="2:6" ht="15.6">
       <c r="C81" s="11" t="s">
         <v>196</v>
       </c>
@@ -15018,7 +15413,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="82" spans="2:6" ht="15.95">
+    <row r="82" spans="2:6" ht="15.6">
       <c r="C82" s="11" t="s">
         <v>199</v>
       </c>
@@ -15032,7 +15427,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="83" spans="2:6" ht="15.95">
+    <row r="83" spans="2:6" ht="15.6">
       <c r="C83" s="11" t="s">
         <v>201</v>
       </c>
@@ -15046,7 +15441,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="84" spans="2:6" ht="15.95">
+    <row r="84" spans="2:6" ht="15.6">
       <c r="C84" s="11" t="s">
         <v>203</v>
       </c>
@@ -15057,7 +15452,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="85" spans="2:6" ht="15.95">
+    <row r="85" spans="2:6" ht="15.6">
       <c r="B85" s="2"/>
       <c r="C85" s="11" t="s">
         <v>205</v>
@@ -15072,7 +15467,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="86" spans="2:6" ht="15.95">
+    <row r="86" spans="2:6" ht="15.6">
       <c r="C86" s="11" t="s">
         <v>207</v>
       </c>
@@ -15083,7 +15478,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="87" spans="2:6" ht="15.95">
+    <row r="87" spans="2:6" ht="15.6">
       <c r="C87" s="11" t="s">
         <v>209</v>
       </c>
@@ -15097,7 +15492,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="88" spans="2:6" ht="15.95">
+    <row r="88" spans="2:6" ht="15.6">
       <c r="C88" s="11" t="s">
         <v>211</v>
       </c>
@@ -15111,7 +15506,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="89" spans="2:6" ht="15.95">
+    <row r="89" spans="2:6" ht="15.6">
       <c r="C89" s="11" t="s">
         <v>213</v>
       </c>
@@ -15125,7 +15520,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="90" spans="2:6" ht="15.95">
+    <row r="90" spans="2:6" ht="15.6">
       <c r="C90" s="11" t="s">
         <v>215</v>
       </c>
@@ -15139,7 +15534,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="91" spans="2:6" ht="15.95">
+    <row r="91" spans="2:6" ht="15.6">
       <c r="C91" s="11" t="s">
         <v>217</v>
       </c>
@@ -15153,7 +15548,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="92" spans="2:6" ht="15.95">
+    <row r="92" spans="2:6" ht="15.6">
       <c r="C92" s="11" t="s">
         <v>219</v>
       </c>
@@ -15167,7 +15562,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="93" spans="2:6" ht="15.95">
+    <row r="93" spans="2:6" ht="15.6">
       <c r="C93" s="11" t="s">
         <v>221</v>
       </c>
@@ -15178,7 +15573,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="2:6" ht="15.95">
+    <row r="94" spans="2:6" ht="15.6">
       <c r="C94" s="11" t="s">
         <v>223</v>
       </c>
@@ -15189,7 +15584,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="95" spans="2:6" ht="15.95">
+    <row r="95" spans="2:6" ht="15.6">
       <c r="C95" s="11" t="s">
         <v>225</v>
       </c>
@@ -15203,7 +15598,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="96" spans="2:6" ht="15.95">
+    <row r="96" spans="2:6" ht="15.6">
       <c r="C96" s="11" t="s">
         <v>227</v>
       </c>
@@ -15214,7 +15609,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="2:6" ht="15.95">
+    <row r="97" spans="2:6" ht="15.6">
       <c r="B97" s="2"/>
       <c r="C97" s="11" t="s">
         <v>229</v>
@@ -15226,7 +15621,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="15.95">
+    <row r="98" spans="2:6" ht="15.6">
       <c r="C98" s="11" t="s">
         <v>231</v>
       </c>
@@ -15240,7 +15635,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="99" spans="2:6" ht="15.95">
+    <row r="99" spans="2:6" ht="15.6">
       <c r="C99" s="11" t="s">
         <v>233</v>
       </c>
@@ -15251,7 +15646,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="100" spans="2:6" ht="15.95">
+    <row r="100" spans="2:6" ht="15.6">
       <c r="C100" s="11" t="s">
         <v>235</v>
       </c>
@@ -15265,7 +15660,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="15.95">
+    <row r="101" spans="2:6" ht="15.6">
       <c r="C101" s="11" t="s">
         <v>237</v>
       </c>
@@ -15276,7 +15671,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="102" spans="2:6" ht="15.95">
+    <row r="102" spans="2:6" ht="15.6">
       <c r="C102" s="11" t="s">
         <v>239</v>
       </c>
@@ -15287,7 +15682,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="103" spans="2:6" ht="15.95">
+    <row r="103" spans="2:6" ht="15.6">
       <c r="C103" s="11" t="s">
         <v>241</v>
       </c>
@@ -15301,7 +15696,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="104" spans="2:6" ht="15.95">
+    <row r="104" spans="2:6" ht="15.6">
       <c r="C104" s="11" t="s">
         <v>243</v>
       </c>
@@ -15312,7 +15707,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="105" spans="2:6" ht="15.95">
+    <row r="105" spans="2:6" ht="15.6">
       <c r="B105" s="2"/>
       <c r="C105" s="11" t="s">
         <v>245</v>
@@ -15327,7 +15722,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="106" spans="2:6" ht="15.95">
+    <row r="106" spans="2:6" ht="15.6">
       <c r="C106" s="11" t="s">
         <v>247</v>
       </c>
@@ -15341,7 +15736,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="107" spans="2:6" ht="15.95">
+    <row r="107" spans="2:6" ht="15.6">
       <c r="C107" s="11" t="s">
         <v>249</v>
       </c>
@@ -15352,7 +15747,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="108" spans="2:6" ht="15.95">
+    <row r="108" spans="2:6" ht="15.6">
       <c r="C108" s="11" t="s">
         <v>251</v>
       </c>
@@ -15366,7 +15761,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="109" spans="2:6" ht="17.100000000000001">
+    <row r="109" spans="2:6" ht="15.6">
       <c r="C109" s="11" t="s">
         <v>253</v>
       </c>
@@ -15380,7 +15775,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="110" spans="2:6" ht="17.100000000000001">
+    <row r="110" spans="2:6" ht="15.6">
       <c r="C110" s="11" t="s">
         <v>255</v>
       </c>
@@ -15394,7 +15789,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="111" spans="2:6" ht="15.95">
+    <row r="111" spans="2:6" ht="15.6">
       <c r="C111" s="11" t="s">
         <v>257</v>
       </c>
@@ -15405,7 +15800,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="112" spans="2:6" ht="17.100000000000001">
+    <row r="112" spans="2:6" ht="15.6">
       <c r="B112" s="2"/>
       <c r="C112" s="11" t="s">
         <v>259</v>
@@ -15420,7 +15815,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="113" spans="3:6" ht="15.95">
+    <row r="113" spans="3:6" ht="15.6">
       <c r="C113" s="11" t="s">
         <v>261</v>
       </c>
@@ -15431,7 +15826,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="114" spans="3:6" ht="15.95">
+    <row r="114" spans="3:6" ht="15.6">
       <c r="C114" s="11" t="s">
         <v>263</v>
       </c>
@@ -15445,7 +15840,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="115" spans="3:6" ht="15.95">
+    <row r="115" spans="3:6" ht="15.6">
       <c r="C115" s="11" t="s">
         <v>265</v>
       </c>
@@ -15456,7 +15851,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="116" spans="3:6" ht="15.95">
+    <row r="116" spans="3:6" ht="15.6">
       <c r="C116" s="11" t="s">
         <v>267</v>
       </c>
@@ -15467,7 +15862,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="117" spans="3:6" ht="15.95">
+    <row r="117" spans="3:6" ht="15.6">
       <c r="C117" s="11" t="s">
         <v>269</v>
       </c>
@@ -15478,7 +15873,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="118" spans="3:6" ht="15.95">
+    <row r="118" spans="3:6" ht="15.6">
       <c r="C118" s="11" t="s">
         <v>271</v>
       </c>
@@ -15492,7 +15887,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="119" spans="3:6" ht="15.95">
+    <row r="119" spans="3:6" ht="15.6">
       <c r="C119" s="11" t="s">
         <v>273</v>
       </c>
@@ -15503,7 +15898,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="120" spans="3:6" ht="15.95">
+    <row r="120" spans="3:6" ht="15.6">
       <c r="C120" s="11" t="s">
         <v>275</v>
       </c>
@@ -15517,7 +15912,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="121" spans="3:6" ht="15.95">
+    <row r="121" spans="3:6" ht="15.6">
       <c r="C121" s="11" t="s">
         <v>277</v>
       </c>
@@ -15528,7 +15923,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="122" spans="3:6" ht="15.95">
+    <row r="122" spans="3:6" ht="15.6">
       <c r="C122" s="11" t="s">
         <v>279</v>
       </c>
@@ -15542,7 +15937,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="123" spans="3:6" ht="15.95">
+    <row r="123" spans="3:6" ht="15.6">
       <c r="C123" s="11" t="s">
         <v>281</v>
       </c>
@@ -15556,7 +15951,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="124" spans="3:6" ht="17.100000000000001">
+    <row r="124" spans="3:6" ht="15.6">
       <c r="C124" s="11" t="s">
         <v>283</v>
       </c>
@@ -15570,7 +15965,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="125" spans="3:6" ht="15.95">
+    <row r="125" spans="3:6" ht="15.6">
       <c r="C125" s="11" t="s">
         <v>285</v>
       </c>
@@ -15584,7 +15979,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="126" spans="3:6" ht="15.95">
+    <row r="126" spans="3:6" ht="15.6">
       <c r="C126" s="11" t="s">
         <v>287</v>
       </c>
@@ -15595,7 +15990,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="127" spans="3:6" ht="15.95">
+    <row r="127" spans="3:6" ht="15.6">
       <c r="C127" s="11" t="s">
         <v>289</v>
       </c>
@@ -15606,7 +16001,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="128" spans="3:6" ht="15.95">
+    <row r="128" spans="3:6" ht="15.6">
       <c r="C128" s="11" t="s">
         <v>291</v>
       </c>
@@ -15617,7 +16012,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="129" spans="2:6" ht="15.95">
+    <row r="129" spans="2:6" ht="15.6">
       <c r="C129" s="11" t="s">
         <v>293</v>
       </c>
@@ -15631,7 +16026,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="130" spans="2:6" ht="15.95">
+    <row r="130" spans="2:6" ht="15.6">
       <c r="C130" s="11" t="s">
         <v>295</v>
       </c>
@@ -15645,7 +16040,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="131" spans="2:6" ht="15.95">
+    <row r="131" spans="2:6" ht="15.6">
       <c r="C131" s="11" t="s">
         <v>297</v>
       </c>
@@ -15659,7 +16054,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="132" spans="2:6" ht="15.95">
+    <row r="132" spans="2:6" ht="15.6">
       <c r="C132" s="11" t="s">
         <v>299</v>
       </c>
@@ -15673,7 +16068,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="133" spans="2:6" ht="15.95">
+    <row r="133" spans="2:6" ht="15.6">
       <c r="C133" s="11" t="s">
         <v>301</v>
       </c>
@@ -15687,7 +16082,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="134" spans="2:6" ht="15.95">
+    <row r="134" spans="2:6" ht="15.6">
       <c r="C134" s="11" t="s">
         <v>303</v>
       </c>
@@ -15701,7 +16096,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="135" spans="2:6" ht="15.95">
+    <row r="135" spans="2:6" ht="15.6">
       <c r="C135" s="11" t="s">
         <v>307</v>
       </c>
@@ -15715,7 +16110,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="136" spans="2:6" ht="15.95">
+    <row r="136" spans="2:6" ht="15.6">
       <c r="C136" s="11" t="s">
         <v>309</v>
       </c>
@@ -15726,7 +16121,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="137" spans="2:6" ht="15.95">
+    <row r="137" spans="2:6" ht="15.6">
       <c r="C137" s="11" t="s">
         <v>311</v>
       </c>
@@ -15740,7 +16135,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="138" spans="2:6" ht="15.95">
+    <row r="138" spans="2:6" ht="15.6">
       <c r="C138" s="11" t="s">
         <v>313</v>
       </c>
@@ -15751,7 +16146,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="139" spans="2:6" ht="15.95">
+    <row r="139" spans="2:6" ht="15.6">
       <c r="C139" s="11" t="s">
         <v>315</v>
       </c>
@@ -15762,7 +16157,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="140" spans="2:6" ht="15.95">
+    <row r="140" spans="2:6" ht="15.6">
       <c r="B140" s="2"/>
       <c r="C140" s="11" t="s">
         <v>317</v>
@@ -15777,7 +16172,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="141" spans="2:6" ht="17.100000000000001">
+    <row r="141" spans="2:6" ht="15.6">
       <c r="C141" s="11" t="s">
         <v>319</v>
       </c>
@@ -15791,7 +16186,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="142" spans="2:6" ht="15.95">
+    <row r="142" spans="2:6" ht="15.6">
       <c r="C142" s="11" t="s">
         <v>321</v>
       </c>
@@ -15805,7 +16200,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="143" spans="2:6" ht="15.95">
+    <row r="143" spans="2:6" ht="15.6">
       <c r="C143" s="11" t="s">
         <v>323</v>
       </c>
@@ -15816,7 +16211,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="144" spans="2:6" ht="15.95">
+    <row r="144" spans="2:6" ht="15.6">
       <c r="C144" s="11" t="s">
         <v>325</v>
       </c>
@@ -15830,7 +16225,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="145" spans="2:6" ht="15.95">
+    <row r="145" spans="2:6" ht="15.6">
       <c r="C145" s="11" t="s">
         <v>327</v>
       </c>
@@ -15841,7 +16236,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="146" spans="2:6" ht="15.95">
+    <row r="146" spans="2:6" ht="15.6">
       <c r="C146" s="11" t="s">
         <v>329</v>
       </c>
@@ -15855,7 +16250,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="147" spans="2:6" ht="15.95">
+    <row r="147" spans="2:6" ht="15.6">
       <c r="B147" s="2"/>
       <c r="C147" s="11" t="s">
         <v>331</v>
@@ -15867,7 +16262,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="148" spans="2:6" ht="15.95">
+    <row r="148" spans="2:6" ht="15.6">
       <c r="C148" s="11" t="s">
         <v>333</v>
       </c>
@@ -15881,7 +16276,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="149" spans="2:6" ht="15.95">
+    <row r="149" spans="2:6" ht="15.6">
       <c r="C149" s="11" t="s">
         <v>335</v>
       </c>
@@ -15895,7 +16290,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="150" spans="2:6" ht="15.95">
+    <row r="150" spans="2:6" ht="15.6">
       <c r="C150" s="11" t="s">
         <v>337</v>
       </c>
@@ -15909,7 +16304,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="151" spans="2:6" ht="15.95">
+    <row r="151" spans="2:6" ht="15.6">
       <c r="C151" s="11" t="s">
         <v>339</v>
       </c>
@@ -15923,7 +16318,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="152" spans="2:6" ht="15.95">
+    <row r="152" spans="2:6" ht="15.6">
       <c r="B152" s="2"/>
       <c r="C152" s="11" t="s">
         <v>341</v>
@@ -15935,7 +16330,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="153" spans="2:6" ht="15.95">
+    <row r="153" spans="2:6" ht="15.6">
       <c r="C153" s="11" t="s">
         <v>343</v>
       </c>
@@ -15946,7 +16341,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="154" spans="2:6" ht="15.95">
+    <row r="154" spans="2:6" ht="15.6">
       <c r="C154" s="11" t="s">
         <v>345</v>
       </c>
@@ -15957,7 +16352,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="155" spans="2:6" ht="15.95">
+    <row r="155" spans="2:6" ht="15.6">
       <c r="C155" s="11" t="s">
         <v>347</v>
       </c>
@@ -15968,7 +16363,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="156" spans="2:6" ht="15.95">
+    <row r="156" spans="2:6" ht="15.6">
       <c r="C156" s="11" t="s">
         <v>349</v>
       </c>
@@ -15979,7 +16374,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="157" spans="2:6" ht="15.95">
+    <row r="157" spans="2:6" ht="15.6">
       <c r="C157" s="11" t="s">
         <v>351</v>
       </c>
@@ -15990,7 +16385,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="158" spans="2:6" ht="15.95">
+    <row r="158" spans="2:6" ht="15.6">
       <c r="C158" s="11" t="s">
         <v>353</v>
       </c>
@@ -16001,7 +16396,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="159" spans="2:6" ht="15.95">
+    <row r="159" spans="2:6" ht="15.6">
       <c r="C159" s="11" t="s">
         <v>355</v>
       </c>
@@ -16015,7 +16410,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="160" spans="2:6" ht="17.100000000000001">
+    <row r="160" spans="2:6" ht="15.6">
       <c r="C160" s="11" t="s">
         <v>357</v>
       </c>
@@ -16029,7 +16424,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="161" spans="2:6" ht="15.95">
+    <row r="161" spans="2:6" ht="15.6">
       <c r="C161" s="11" t="s">
         <v>359</v>
       </c>
@@ -16043,7 +16438,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="162" spans="2:6" ht="15.95">
+    <row r="162" spans="2:6" ht="15.6">
       <c r="C162" s="11" t="s">
         <v>361</v>
       </c>
@@ -16054,7 +16449,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="163" spans="2:6" ht="15.95">
+    <row r="163" spans="2:6" ht="15.6">
       <c r="C163" s="11" t="s">
         <v>363</v>
       </c>
@@ -16068,7 +16463,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="164" spans="2:6" ht="15.95">
+    <row r="164" spans="2:6" ht="15.6">
       <c r="C164" s="11" t="s">
         <v>365</v>
       </c>
@@ -16082,7 +16477,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="165" spans="2:6" ht="15.95">
+    <row r="165" spans="2:6" ht="15.6">
       <c r="C165" s="11" t="s">
         <v>367</v>
       </c>
@@ -16093,7 +16488,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="166" spans="2:6" ht="17.100000000000001">
+    <row r="166" spans="2:6" ht="15.6">
       <c r="C166" s="11" t="s">
         <v>369</v>
       </c>
@@ -16107,7 +16502,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="167" spans="2:6" ht="15.95">
+    <row r="167" spans="2:6" ht="15.6">
       <c r="C167" s="11" t="s">
         <v>371</v>
       </c>
@@ -16121,7 +16516,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="168" spans="2:6" ht="15.95">
+    <row r="168" spans="2:6" ht="15.6">
       <c r="B168" s="2"/>
       <c r="C168" s="11" t="s">
         <v>373</v>
@@ -16136,7 +16531,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="169" spans="2:6" ht="15.95">
+    <row r="169" spans="2:6" ht="15.6">
       <c r="B169" s="2"/>
       <c r="C169" s="11" t="s">
         <v>375</v>
@@ -16151,7 +16546,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="170" spans="2:6" ht="15.95">
+    <row r="170" spans="2:6" ht="15.6">
       <c r="C170" s="11" t="s">
         <v>377</v>
       </c>
@@ -16165,7 +16560,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="171" spans="2:6" ht="15.95">
+    <row r="171" spans="2:6" ht="15.6">
       <c r="C171" s="11" t="s">
         <v>379</v>
       </c>
@@ -16179,7 +16574,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="172" spans="2:6" ht="15.95">
+    <row r="172" spans="2:6" ht="15.6">
       <c r="C172" s="11" t="s">
         <v>381</v>
       </c>
@@ -16190,7 +16585,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="173" spans="2:6" ht="15.95">
+    <row r="173" spans="2:6" ht="15.6">
       <c r="C173" s="11" t="s">
         <v>383</v>
       </c>
@@ -16204,7 +16599,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="174" spans="2:6" ht="15.95">
+    <row r="174" spans="2:6" ht="15.6">
       <c r="C174" s="11" t="s">
         <v>385</v>
       </c>
@@ -16218,7 +16613,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="175" spans="2:6" ht="15.95">
+    <row r="175" spans="2:6" ht="15.6">
       <c r="C175" s="11" t="s">
         <v>387</v>
       </c>
@@ -16229,7 +16624,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="176" spans="2:6" ht="15.95">
+    <row r="176" spans="2:6" ht="15.6">
       <c r="C176" s="11" t="s">
         <v>389</v>
       </c>
@@ -16243,7 +16638,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="177" spans="2:6" ht="15.95">
+    <row r="177" spans="2:6" ht="15.6">
       <c r="C177" s="11" t="s">
         <v>391</v>
       </c>
@@ -16257,7 +16652,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="178" spans="2:6" ht="15.95">
+    <row r="178" spans="2:6" ht="15.6">
       <c r="C178" s="11" t="s">
         <v>393</v>
       </c>
@@ -16271,7 +16666,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="179" spans="2:6" ht="15.95">
+    <row r="179" spans="2:6" ht="15.6">
       <c r="B179" s="2"/>
       <c r="C179" s="11" t="s">
         <v>395</v>
@@ -16283,7 +16678,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="180" spans="2:6" ht="15.95">
+    <row r="180" spans="2:6" ht="15.6">
       <c r="C180" s="11" t="s">
         <v>397</v>
       </c>
@@ -16297,7 +16692,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="181" spans="2:6" ht="15.95">
+    <row r="181" spans="2:6" ht="15.6">
       <c r="C181" s="11" t="s">
         <v>399</v>
       </c>
@@ -16308,7 +16703,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="182" spans="2:6" ht="15.95">
+    <row r="182" spans="2:6" ht="15.6">
       <c r="C182" s="11" t="s">
         <v>401</v>
       </c>
@@ -16322,7 +16717,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="183" spans="2:6" ht="15.95">
+    <row r="183" spans="2:6" ht="15.6">
       <c r="C183" s="11" t="s">
         <v>403</v>
       </c>
@@ -16336,7 +16731,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="184" spans="2:6" ht="15.95">
+    <row r="184" spans="2:6" ht="15.6">
       <c r="C184" s="11" t="s">
         <v>405</v>
       </c>
@@ -16350,7 +16745,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="185" spans="2:6" ht="17.100000000000001">
+    <row r="185" spans="2:6" ht="15.6">
       <c r="C185" s="11" t="s">
         <v>407</v>
       </c>
@@ -16364,7 +16759,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="186" spans="2:6" ht="15.95">
+    <row r="186" spans="2:6" ht="15.6">
       <c r="C186" s="11" t="s">
         <v>409</v>
       </c>
@@ -16375,7 +16770,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="187" spans="2:6" ht="15.95">
+    <row r="187" spans="2:6" ht="15.6">
       <c r="B187" s="13"/>
       <c r="C187" s="11" t="s">
         <v>411</v>
@@ -16390,7 +16785,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="188" spans="2:6" ht="15.95">
+    <row r="188" spans="2:6" ht="15.6">
       <c r="C188" s="11" t="s">
         <v>413</v>
       </c>
@@ -16404,7 +16799,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="189" spans="2:6" ht="15.95">
+    <row r="189" spans="2:6" ht="15.6">
       <c r="C189" s="11" t="s">
         <v>415</v>
       </c>
@@ -16415,7 +16810,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="190" spans="2:6" ht="15.95">
+    <row r="190" spans="2:6" ht="15.6">
       <c r="C190" s="11" t="s">
         <v>417</v>
       </c>
@@ -16429,7 +16824,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="191" spans="2:6" ht="15.95">
+    <row r="191" spans="2:6" ht="15.6">
       <c r="C191" s="11" t="s">
         <v>419</v>
       </c>
@@ -16443,7 +16838,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="192" spans="2:6" ht="15.95">
+    <row r="192" spans="2:6" ht="15.6">
       <c r="C192" s="11" t="s">
         <v>421</v>
       </c>
@@ -16457,7 +16852,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="193" spans="3:6" ht="15.95">
+    <row r="193" spans="3:6" ht="15.6">
       <c r="C193" s="11" t="s">
         <v>423</v>
       </c>
@@ -16471,7 +16866,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="194" spans="3:6" ht="15.95">
+    <row r="194" spans="3:6" ht="15.6">
       <c r="C194" s="11" t="s">
         <v>425</v>
       </c>
@@ -16482,7 +16877,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="195" spans="3:6" ht="17.100000000000001">
+    <row r="195" spans="3:6" ht="15.6">
       <c r="C195" s="11" t="s">
         <v>427</v>
       </c>
@@ -16496,7 +16891,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="196" spans="3:6" ht="15.95">
+    <row r="196" spans="3:6" ht="15.6">
       <c r="C196" s="11" t="s">
         <v>429</v>
       </c>
@@ -16510,7 +16905,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="197" spans="3:6" ht="15.95">
+    <row r="197" spans="3:6" ht="15.6">
       <c r="C197" s="11" t="s">
         <v>431</v>
       </c>
@@ -16524,7 +16919,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="198" spans="3:6" ht="15.95">
+    <row r="198" spans="3:6" ht="15.6">
       <c r="C198" s="11" t="s">
         <v>433</v>
       </c>
@@ -16538,7 +16933,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="199" spans="3:6" ht="15.95">
+    <row r="199" spans="3:6" ht="15.6">
       <c r="D199" s="17">
         <v>0</v>
       </c>
@@ -16739,13 +17134,43 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44D4A413-FCE6-452E-998A-26A273C51DAD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44D4A413-FCE6-452E-998A-26A273C51DAD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="48b2e3f7-b09f-47ae-8574-fd5d5ffa6be8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6962EFDB-3713-4253-9AC6-1F6EE91D9C4E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6962EFDB-3713-4253-9AC6-1F6EE91D9C4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6322EC08-7F15-4758-B157-ECD15CFD93D4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6322EC08-7F15-4758-B157-ECD15CFD93D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="48b2e3f7-b09f-47ae-8574-fd5d5ffa6be8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>